--- a/Automation/Parsing/InterpolatedResults.xlsx
+++ b/Automation/Parsing/InterpolatedResults.xlsx
@@ -15,43 +15,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>NodeNumbers</t>
+    <t>CutLocation</t>
   </si>
   <si>
-    <t>XLocations_inches_</t>
+    <t>X Locations (inches)</t>
   </si>
   <si>
-    <t>YLocations_inches_</t>
+    <t>Y Locations (inches)</t>
   </si>
   <si>
-    <t>ZLocations_inches_</t>
+    <t>Z Locations (inches)</t>
   </si>
   <si>
-    <t>EquivalentElasticStrains_in_in_</t>
+    <t>Equivalent Elastic Strains (in/in)</t>
   </si>
   <si>
-    <t>EquivalentStress_psi_</t>
+    <t>Equivalent Stress (psi)</t>
   </si>
   <si>
-    <t>MaxPrincipalElasticStrain_in_in_</t>
+    <t>Max Principal Elastic Strain (in/in)</t>
   </si>
   <si>
-    <t>MaxPrincipalStress_psi_</t>
+    <t>Max Principal Stress (psi)</t>
   </si>
   <si>
-    <t>MiddlePrincipalElasticStrain_in_in_</t>
+    <t>Middle Principal Elastic Strain (in/in)</t>
   </si>
   <si>
-    <t>MiddlePrincipalStress_psi_</t>
+    <t>Middle Principal Stress (psi)</t>
   </si>
   <si>
-    <t>MinPrincipalElasticStrain_in_in_</t>
+    <t>Min Principal Elastic Strain (in/in)</t>
   </si>
   <si>
-    <t>MinPrincipalStress_psi_</t>
+    <t>Min Principal Stress (psi)</t>
   </si>
   <si>
-    <t>TotalDeformation_in_</t>
+    <t>Total Deformation (in)</t>
   </si>
 </sst>
 </file>
@@ -100,18 +100,18 @@
   <dimension ref="A1:M103"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.93359375" customWidth="true"/>
+    <col min="1" max="1" width="11.046875" customWidth="true"/>
     <col min="2" max="2" width="17.15625" customWidth="true"/>
     <col min="3" max="3" width="17.15625" customWidth="true"/>
     <col min="4" max="4" width="17.046875" customWidth="true"/>
-    <col min="5" max="5" width="26.15625" customWidth="true"/>
+    <col min="5" max="5" width="26.37890625" customWidth="true"/>
     <col min="6" max="6" width="18.6015625" customWidth="true"/>
-    <col min="7" max="7" width="27.37890625" customWidth="true"/>
-    <col min="8" max="8" width="20.6015625" customWidth="true"/>
-    <col min="9" max="9" width="29.37890625" customWidth="true"/>
-    <col min="10" max="10" width="22.6015625" customWidth="true"/>
-    <col min="11" max="11" width="26.93359375" customWidth="true"/>
-    <col min="12" max="12" width="20.15625" customWidth="true"/>
+    <col min="7" max="7" width="28.046875" customWidth="true"/>
+    <col min="8" max="8" width="21.046875" customWidth="true"/>
+    <col min="9" max="9" width="30.046875" customWidth="true"/>
+    <col min="10" max="10" width="23.046875" customWidth="true"/>
+    <col min="11" max="11" width="27.6015625" customWidth="true"/>
+    <col min="12" max="12" width="20.6015625" customWidth="true"/>
     <col min="13" max="13" width="19.26953125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -158,7 +158,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -167,7 +167,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.063473553980008382</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
         <v>0.0005756625396869606</v>
@@ -199,7 +199,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>3.02</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
@@ -208,7 +208,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.063450671172299369</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>0.00058005139520436711</v>
@@ -240,7 +240,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>3.04</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -249,7 +249,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>0.063407645361963444</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0">
         <v>0.00058428965874406406</v>
@@ -281,7 +281,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>3.0600000000000001</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -290,7 +290,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.087478496730551469</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0">
         <v>0.0005989520417291126</v>
@@ -322,7 +322,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>3.0800000000000001</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
@@ -331,7 +331,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>0.075492997754250057</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
         <v>0.00055690867299390437</v>
@@ -363,7 +363,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -372,7 +372,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>0.075432398987274316</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0">
         <v>0.00055721586782391983</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1</v>
+        <v>3.1200000000000001</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.087827884806605971</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0">
         <v>0.00056907900426554116</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>3.1400000000000001</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>0.075307296269255336</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0">
         <v>0.00054519877963217142</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1</v>
+        <v>3.1600000000000001</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="0">
-        <v>0.052207345653740474</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0">
         <v>0.00052769567646680489</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>3.1800000000000002</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.052072969879214337</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0">
         <v>0.00054576549001498879</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1</v>
+        <v>3.2000000000000002</v>
       </c>
       <c r="B12" s="0">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>0.052201651445535222</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0">
         <v>0.00056404336701848913</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>3.2200000000000002</v>
       </c>
       <c r="B13" s="0">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>0.052204751774990135</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0">
         <v>0.00053189151300650256</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>3.2400000000000002</v>
       </c>
       <c r="B14" s="0">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.052209604108309118</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0">
         <v>0.0005712597315704306</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>3.2599999999999998</v>
       </c>
       <c r="B15" s="0">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="0">
-        <v>0.052207080823518083</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0">
         <v>0.00057066286439763864</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>1</v>
+        <v>3.2799999999999998</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="0">
-        <v>0.087737794779260969</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0">
         <v>0.00055443705305479002</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1</v>
+        <v>3.2999999999999998</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.087583234459745599</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0">
         <v>0.00055739620299883664</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>3.3199999999999998</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="0">
-        <v>0.087753742535823812</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0">
         <v>0.00055634330307684882</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>3.3399999999999999</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="0">
-        <v>0.087910127977886124</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0">
         <v>0.00055169571800765566</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>3.3599999999999999</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.08772368352810922</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0">
         <v>0.00054246295022222779</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1</v>
+        <v>3.3799999999999999</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="0">
-        <v>0.087772118818841102</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0">
         <v>0.00054211267760353988</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="B22" s="0">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="0">
-        <v>0.075847568255467041</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0">
         <v>0.00055502973495830652</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1</v>
+        <v>3.4199999999999999</v>
       </c>
       <c r="B23" s="0">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.087626973883777715</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0">
         <v>0.00056161765368595816</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>1</v>
+        <v>3.4399999999999999</v>
       </c>
       <c r="B24" s="0">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="0">
-        <v>0.087639870796661648</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0">
         <v>0.00055417349717153531</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>1</v>
+        <v>3.46</v>
       </c>
       <c r="B25" s="0">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="0">
-        <v>0.087701904316929494</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0">
         <v>0.00055863609788893464</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>1</v>
+        <v>3.48</v>
       </c>
       <c r="B26" s="0">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.087603234076879227</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0">
         <v>0.00055547316416357175</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="B27" s="0">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="0">
-        <v>0.087911206423059329</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0">
         <v>0.00054080675925067471</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1</v>
+        <v>3.52</v>
       </c>
       <c r="B28" s="0">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="0">
-        <v>0.087839024424965301</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0">
         <v>0.00054954595497795308</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.063255482543113362</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0">
         <v>0.00055081094684283959</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>3.5600000000000001</v>
       </c>
       <c r="B30" s="0">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="0">
-        <v>0.063507747281295601</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0">
         <v>0.00057599787629669099</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1</v>
+        <v>3.5800000000000001</v>
       </c>
       <c r="B31" s="0">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="0">
-        <v>0.063270054617001109</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0">
         <v>0.00057411485697270149</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1</v>
+        <v>3.6000000000000001</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.063242025957830059</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0">
         <v>0.00056861341270959213</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1</v>
+        <v>3.6200000000000001</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="0">
-        <v>0.063594199783344268</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0">
         <v>0.00057542464381152335</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>3.6400000000000001</v>
       </c>
       <c r="B34" s="0">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="0">
-        <v>0.087991519008715796</v>
+        <v>1</v>
       </c>
       <c r="E34" s="0">
         <v>0.00053318424021597908</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>3.6600000000000001</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.088067495475574992</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0">
         <v>0.00054657154894115082</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>3.6800000000000002</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="0">
-        <v>0.088100575180972709</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0">
         <v>0.0005597930633095998</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="B37" s="0">
         <v>1</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="0">
-        <v>0.087556366409849734</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0">
         <v>0.00059628344122467905</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1</v>
+        <v>3.7200000000000002</v>
       </c>
       <c r="B38" s="0">
         <v>1</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.087558165864310408</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0">
         <v>0.00059612075067610678</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>1</v>
+        <v>3.7400000000000002</v>
       </c>
       <c r="B39" s="0">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="0">
-        <v>0.087548415642839314</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0">
         <v>0.0005964220617304545</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1</v>
+        <v>3.7599999999999998</v>
       </c>
       <c r="B40" s="0">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="0">
-        <v>0.087526127242807256</v>
+        <v>1</v>
       </c>
       <c r="E40" s="0">
         <v>0.000596763244223714</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1</v>
+        <v>3.7799999999999998</v>
       </c>
       <c r="B41" s="0">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.087515265479676835</v>
+        <v>1</v>
       </c>
       <c r="E41" s="0">
         <v>0.00059906575679243674</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1</v>
+        <v>3.7999999999999998</v>
       </c>
       <c r="B42" s="0">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="0">
-        <v>0.08750630263808104</v>
+        <v>1</v>
       </c>
       <c r="E42" s="0">
         <v>0.00059876340415675557</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1</v>
+        <v>3.8199999999999998</v>
       </c>
       <c r="B43" s="0">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="0">
-        <v>0.087476774164667356</v>
+        <v>1</v>
       </c>
       <c r="E43" s="0">
         <v>0.00059450508119448717</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1</v>
+        <v>3.8399999999999999</v>
       </c>
       <c r="B44" s="0">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.087486293767285631</v>
+        <v>1</v>
       </c>
       <c r="E44" s="0">
         <v>0.00059921039058143403</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>3.8599999999999999</v>
       </c>
       <c r="B45" s="0">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="0">
-        <v>0.087476118022980193</v>
+        <v>1</v>
       </c>
       <c r="E45" s="0">
         <v>0.0005993475396179834</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>1</v>
+        <v>3.8799999999999999</v>
       </c>
       <c r="B46" s="0">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="0">
-        <v>0.087465820989092405</v>
+        <v>1</v>
       </c>
       <c r="E46" s="0">
         <v>0.00059947719909314221</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>3.8999999999999999</v>
       </c>
       <c r="B47" s="0">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.063790688239866306</v>
+        <v>1</v>
       </c>
       <c r="E47" s="0">
         <v>0.00061279487763102943</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>1</v>
+        <v>3.9199999999999999</v>
       </c>
       <c r="B48" s="0">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="0">
-        <v>0.087649854301962898</v>
+        <v>1</v>
       </c>
       <c r="E48" s="0">
         <v>0.00059052473192478514</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>1</v>
+        <v>3.9399999999999999</v>
       </c>
       <c r="B49" s="0">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="0">
-        <v>0.087843221576513669</v>
+        <v>1</v>
       </c>
       <c r="E49" s="0">
         <v>0.0005934931105806532</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1</v>
+        <v>3.96</v>
       </c>
       <c r="B50" s="0">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.087628090912366688</v>
+        <v>1</v>
       </c>
       <c r="E50" s="0">
         <v>0.00058918573856565578</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="B51" s="0">
         <v>1</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="0">
-        <v>0.08764560786974511</v>
+        <v>1</v>
       </c>
       <c r="E51" s="0">
         <v>0.00058724866890337199</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" s="0">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="0">
-        <v>0.087398137810033333</v>
+        <v>1</v>
       </c>
       <c r="E52" s="0">
         <v>0.00060099301740426984</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B53" s="0">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.088069825780623889</v>
+        <v>1</v>
       </c>
       <c r="E53" s="0">
         <v>0.0001030660953552675</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1</v>
+        <v>4.04</v>
       </c>
       <c r="B54" s="0">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="0">
-        <v>0.063473409807053766</v>
+        <v>1</v>
       </c>
       <c r="E54" s="0">
         <v>0.00010624344024900818</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>1</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B55" s="0">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="0">
-        <v>0.063389315931484239</v>
+        <v>1</v>
       </c>
       <c r="E55" s="0">
         <v>0.00010710026463787215</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>4.0800000000000001</v>
       </c>
       <c r="B56" s="0">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.063389315931484239</v>
+        <v>1</v>
       </c>
       <c r="E56" s="0">
         <v>0.00010710026463787215</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B57" s="0">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="0">
-        <v>0.063389820470469274</v>
+        <v>1</v>
       </c>
       <c r="E57" s="0">
         <v>0.00010703150170022132</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>4.1200000000000001</v>
       </c>
       <c r="B58" s="0">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="0">
-        <v>0.063520156192761815</v>
+        <v>1</v>
       </c>
       <c r="E58" s="0">
         <v>0.00010648298472072697</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="B59" s="0">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.063403045025889976</v>
+        <v>1</v>
       </c>
       <c r="E59" s="0">
         <v>0.00010693714971542168</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1</v>
+        <v>4.1600000000000001</v>
       </c>
       <c r="B60" s="0">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="0">
-        <v>0.063511656422488696</v>
+        <v>1</v>
       </c>
       <c r="E60" s="0">
         <v>0.00010710791361047037</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>4.1799999999999997</v>
       </c>
       <c r="B61" s="0">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="0">
-        <v>0.087492566225716481</v>
+        <v>1</v>
       </c>
       <c r="E61" s="0">
         <v>0.00010184567337204477</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1</v>
+        <v>4.2000000000000002</v>
       </c>
       <c r="B62" s="0">
         <v>1</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.087497815437413778</v>
+        <v>1</v>
       </c>
       <c r="E62" s="0">
         <v>0.00010183982995638891</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>4.2199999999999998</v>
       </c>
       <c r="B63" s="0">
         <v>1</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="0">
-        <v>0.075774348011447071</v>
+        <v>1</v>
       </c>
       <c r="E63" s="0">
         <v>0.00012835171448600385</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>4.2400000000000002</v>
       </c>
       <c r="B64" s="0">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="0">
-        <v>0.075736461929464385</v>
+        <v>1</v>
       </c>
       <c r="E64" s="0">
         <v>0.00012824740433469426</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1</v>
+        <v>4.2599999999999998</v>
       </c>
       <c r="B65" s="0">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.075697984479959124</v>
+        <v>1</v>
       </c>
       <c r="E65" s="0">
         <v>0.00012759314116567389</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1</v>
+        <v>4.2800000000000002</v>
       </c>
       <c r="B66" s="0">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="0">
-        <v>0.052230410211285438</v>
+        <v>1</v>
       </c>
       <c r="E66" s="0">
         <v>0.00013043058431538889</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>4.2999999999999998</v>
       </c>
       <c r="B67" s="0">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="0">
-        <v>0.052228366085782171</v>
+        <v>1</v>
       </c>
       <c r="E67" s="0">
         <v>0.00012759310398543258</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>4.3200000000000003</v>
       </c>
       <c r="B68" s="0">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.052202581494260519</v>
+        <v>1</v>
       </c>
       <c r="E68" s="0">
         <v>0.00012965078229610288</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>1</v>
+        <v>4.3399999999999999</v>
       </c>
       <c r="B69" s="0">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="0">
-        <v>0.075800735396907487</v>
+        <v>1</v>
       </c>
       <c r="E69" s="0">
         <v>0.00013612053344531921</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>1</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="B70" s="0">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="0">
-        <v>0.075807025411943479</v>
+        <v>1</v>
       </c>
       <c r="E70" s="0">
         <v>0.00013607947353404726</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>1</v>
+        <v>4.3799999999999999</v>
       </c>
       <c r="B71" s="0">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.063463215198755238</v>
+        <v>1</v>
       </c>
       <c r="E71" s="0">
         <v>0.00010706671598718826</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B72" s="0">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="0">
-        <v>0.087456790039156587</v>
+        <v>1</v>
       </c>
       <c r="E72" s="0">
         <v>0.00010161263710645811</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1</v>
+        <v>4.4199999999999999</v>
       </c>
       <c r="B73" s="0">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="0">
-        <v>0.087578631249216832</v>
+        <v>1</v>
       </c>
       <c r="E73" s="0">
         <v>0.0001017536848361542</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="B74" s="0">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.087583511308692283</v>
+        <v>1</v>
       </c>
       <c r="E74" s="0">
         <v>0.00010174094559310733</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>1</v>
+        <v>4.46</v>
       </c>
       <c r="B75" s="0">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="0">
-        <v>0.087588160503437165</v>
+        <v>1</v>
       </c>
       <c r="E75" s="0">
         <v>0.00010171209165631831</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>1</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="B76" s="0">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="0">
-        <v>0.088102509179220953</v>
+        <v>1</v>
       </c>
       <c r="E76" s="0">
         <v>0.00010300971580823293</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="B77" s="0">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.08811299013398452</v>
+        <v>1</v>
       </c>
       <c r="E77" s="0">
         <v>0.0001030113486423037</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B78" s="0">
         <v>1</v>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="0">
-        <v>0.088122802382875412</v>
+        <v>1</v>
       </c>
       <c r="E78" s="0">
         <v>0.00010299340356197344</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1</v>
+        <v>4.54</v>
       </c>
       <c r="B79" s="0">
         <v>1</v>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="0">
-        <v>0.075978945669713249</v>
+        <v>1</v>
       </c>
       <c r="E79" s="0">
         <v>0.00013560622999368629</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>1</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="B80" s="0">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.088142960976008683</v>
+        <v>1</v>
       </c>
       <c r="E80" s="0">
         <v>0.00010296484063562228</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>1</v>
+        <v>4.5800000000000001</v>
       </c>
       <c r="B81" s="0">
         <v>1</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="0">
-        <v>0.052148984533024342</v>
+        <v>1</v>
       </c>
       <c r="E81" s="0">
         <v>0.00012974494931240914</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B82" s="0">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="0">
-        <v>0.08757426264820499</v>
+        <v>1</v>
       </c>
       <c r="E82" s="0">
         <v>0.00010116338186759726</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1</v>
+        <v>4.6200000000000001</v>
       </c>
       <c r="B83" s="0">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.075963962129163454</v>
+        <v>1</v>
       </c>
       <c r="E83" s="0">
         <v>0.00013030100868227694</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>1</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="B84" s="0">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="0">
-        <v>0.087880394784640964</v>
+        <v>1</v>
       </c>
       <c r="E84" s="0">
         <v>0.00010176052752772182</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>1</v>
+        <v>4.6600000000000001</v>
       </c>
       <c r="B85" s="0">
         <v>1</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="0">
-        <v>0.052158451899895222</v>
+        <v>1</v>
       </c>
       <c r="E85" s="0">
         <v>0.00012745415046590849</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>1</v>
+        <v>4.6799999999999997</v>
       </c>
       <c r="B86" s="0">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.052154573095297876</v>
+        <v>1</v>
       </c>
       <c r="E86" s="0">
         <v>0.00012801281159985286</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>1</v>
+        <v>4.7000000000000002</v>
       </c>
       <c r="B87" s="0">
         <v>1</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="0">
-        <v>0.052139763614268947</v>
+        <v>1</v>
       </c>
       <c r="E87" s="0">
         <v>0.00012533727442994949</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>1</v>
+        <v>4.7199999999999998</v>
       </c>
       <c r="B88" s="0">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="0">
-        <v>0.087592885055525371</v>
+        <v>1</v>
       </c>
       <c r="E88" s="0">
         <v>0.00010055298954711705</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>1</v>
+        <v>4.7400000000000002</v>
       </c>
       <c r="B89" s="0">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.087590827027535817</v>
+        <v>1</v>
       </c>
       <c r="E89" s="0">
         <v>0.00010081447286221465</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1</v>
+        <v>4.7599999999999998</v>
       </c>
       <c r="B90" s="0">
         <v>1</v>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="0">
-        <v>0.07561415955707447</v>
+        <v>1</v>
       </c>
       <c r="E90" s="0">
         <v>0.00012670342066962932</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>1</v>
+        <v>4.7800000000000002</v>
       </c>
       <c r="B91" s="0">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="0">
-        <v>0.087687749639841245</v>
+        <v>1</v>
       </c>
       <c r="E91" s="0">
         <v>0.0001004975440232535</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>1</v>
+        <v>4.7999999999999998</v>
       </c>
       <c r="B92" s="0">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.087729808419893182</v>
+        <v>1</v>
       </c>
       <c r="E92" s="0">
         <v>0.00010119837449476689</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>1</v>
+        <v>4.8200000000000003</v>
       </c>
       <c r="B93" s="0">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="0">
-        <v>0.087821386225285097</v>
+        <v>1</v>
       </c>
       <c r="E93" s="0">
         <v>0.00010198529986716805</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>1</v>
+        <v>4.8399999999999999</v>
       </c>
       <c r="B94" s="0">
         <v>1</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="0">
-        <v>0.087709790111383787</v>
+        <v>1</v>
       </c>
       <c r="E94" s="0">
         <v>0.00010094376588237815</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>1</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="B95" s="0">
         <v>1</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.087679225990227594</v>
+        <v>1</v>
       </c>
       <c r="E95" s="0">
         <v>0.0001021941200404179</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>1</v>
+        <v>4.8799999999999999</v>
       </c>
       <c r="B96" s="0">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="0">
-        <v>0.08786451960364855</v>
+        <v>1</v>
       </c>
       <c r="E96" s="0">
         <v>0.00010001368577759336</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B97" s="0">
         <v>1</v>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="0">
-        <v>0.087748389668041521</v>
+        <v>1</v>
       </c>
       <c r="E97" s="0">
         <v>0.00010100254822539731</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>1</v>
+        <v>4.9199999999999999</v>
       </c>
       <c r="B98" s="0">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.087501679738052784</v>
+        <v>1</v>
       </c>
       <c r="E98" s="0">
         <v>0.0001011946711444204</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>1</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="B99" s="0">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="D99" s="0">
-        <v>0.08766944611468519</v>
+        <v>1</v>
       </c>
       <c r="E99" s="0">
         <v>9.9872054452419443e-05</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>1</v>
+        <v>4.96</v>
       </c>
       <c r="B100" s="0">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="0">
-        <v>0.087748536768369204</v>
+        <v>1</v>
       </c>
       <c r="E100" s="0">
         <v>0.00010192522489863205</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>1</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="B101" s="0">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.087760427768683369</v>
+        <v>1</v>
       </c>
       <c r="E101" s="0">
         <v>0.00010195846935724342</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B102" s="0">
         <v>1</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="0">
-        <v>0.087765961947604179</v>
+        <v>1</v>
       </c>
       <c r="E102" s="0">
         <v>0.00010181797320864355</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>1</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B103" s="0">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="0">
-        <v>0.063625739135892367</v>
+        <v>1</v>
       </c>
       <c r="E103" s="0">
         <v>0.00010798174039716157</v>

--- a/Automation/Parsing/InterpolatedResults.xlsx
+++ b/Automation/Parsing/InterpolatedResults.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -126,2652 +126,5224 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00043204701266134486</v>
+        <v>8.9522770334794815e-05</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00040485928106542872</v>
+        <v>5.5201478872484373e-05</v>
       </c>
       <c r="C2" s="0">
-        <v>0.00036508727537457595</v>
+        <v>4.7012019444902573e-05</v>
       </c>
       <c r="D2" s="0">
-        <v>0.00030584863861959428</v>
+        <v>4.2499758863679185e-05</v>
       </c>
       <c r="E2" s="0">
-        <v>0.00020032406458388448</v>
+        <v>1.8386586561622532e-05</v>
       </c>
       <c r="F2" s="0">
-        <v>0.00015395063385467608</v>
+        <v>1.1908840329803174e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>5.9029835377407806e-05</v>
+        <v>2.730180079399332e-06</v>
       </c>
       <c r="H2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00042180598181173839</v>
+        <v>9.3837874514678802e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00040255671663336266</v>
+        <v>6.479301989994984e-05</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0003644011414216908</v>
+        <v>4.5050305187416778e-05</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00030568929529429297</v>
+        <v>3.6586938231195763e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0002003818005235976</v>
+        <v>1.9514196057850584e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00015391777611711813</v>
+        <v>5.3803297657639393e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>5.9056696993372399e-05</v>
+        <v>2.9922528639330436e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>3.02</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.00042818061471334675</v>
+        <v>9.9961386669418544e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00039142673691184654</v>
+        <v>8.3432605293914122e-05</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00036337372261663272</v>
+        <v>6.5759405798329921e-05</v>
       </c>
       <c r="D4" s="0">
-        <v>0.00030529800177663409</v>
+        <v>4.854628339653161e-05</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00019990272420655341</v>
+        <v>2.3386246801509425e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00015423001801929945</v>
+        <v>1.479061596310216e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>5.9095326169308802e-05</v>
+        <v>3.188344332211698e-06</v>
       </c>
       <c r="H4" s="0">
-        <v>3.04</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.00041864159522957909</v>
+        <v>9.5012249587908044e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00040004651067364816</v>
+        <v>6.2220699255871383e-05</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00036418426270481204</v>
+        <v>4.3919814002022719e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00030544769431191756</v>
+        <v>3.8309307353853769e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00020035585608100371</v>
+        <v>1.9177243957569857e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00015369020823191169</v>
+        <v>7.4645295408133798e-06</v>
       </c>
       <c r="G5" s="0">
-        <v>5.9061671371067744e-05</v>
+        <v>2.9960238878050596e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>3.0600000000000001</v>
+        <v>2.0600000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0004146750780427342</v>
+        <v>9.4248860384530937e-05</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00039799023510839529</v>
+        <v>6.2924339512764103e-05</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00036445841359236252</v>
+        <v>4.3159899441410916e-05</v>
       </c>
       <c r="D6" s="0">
-        <v>0.00030512352636370352</v>
+        <v>3.8833110917327486e-05</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00020040622969810142</v>
+        <v>1.9007521524745637e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00015561820823636625</v>
+        <v>8.1631821813513455e-06</v>
       </c>
       <c r="G6" s="0">
-        <v>5.9059763083813014e-05</v>
+        <v>2.9998148370500025e-06</v>
       </c>
       <c r="H6" s="0">
-        <v>3.0800000000000001</v>
+        <v>2.0800000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00040070606235590339</v>
+        <v>9.3875916606193498e-05</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00041752449174868518</v>
+        <v>6.215446218460923e-05</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00036286051327588713</v>
+        <v>4.2129008087839415e-05</v>
       </c>
       <c r="D7" s="0">
-        <v>0.00030497413777422937</v>
+        <v>3.9332291885140172e-05</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00020031074653646268</v>
+        <v>1.8854076852670826e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00015347705716571867</v>
+        <v>8.5842134596768019e-06</v>
       </c>
       <c r="G7" s="0">
-        <v>5.9022895127794049e-05</v>
+        <v>3.0074831023228935e-06</v>
       </c>
       <c r="H7" s="0">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.00041504220617495641</v>
+        <v>9.2869470576057323e-05</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0003969865037376107</v>
+        <v>6.1444245379630165e-05</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00036303193273855516</v>
+        <v>4.0679013557300202e-05</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00030497706280023431</v>
+        <v>3.9804289078273736e-05</v>
       </c>
       <c r="E8" s="0">
-        <v>0.00020025947071722832</v>
+        <v>1.8689596844906102e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>0.00015333851660566305</v>
+        <v>8.9016791460358161e-06</v>
       </c>
       <c r="G8" s="0">
-        <v>5.905128999570219e-05</v>
+        <v>3.0087597618887217e-06</v>
       </c>
       <c r="H8" s="0">
-        <v>3.1200000000000001</v>
+        <v>2.1200000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00040266067068885092</v>
+        <v>9.1456867710109019e-05</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00040019764063623772</v>
+        <v>6.1470911075459792e-05</v>
       </c>
       <c r="C9" s="0">
-        <v>0.00036583304668437688</v>
+        <v>3.8314491357225225e-05</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00030541712262834644</v>
+        <v>4.030391362884748e-05</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00020031686185820145</v>
+        <v>1.8527581014987638e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>0.00015341493265659951</v>
+        <v>9.1472106914402168e-06</v>
       </c>
       <c r="G9" s="0">
-        <v>5.9025841918199787e-05</v>
+        <v>3.0114655359473122e-06</v>
       </c>
       <c r="H9" s="0">
-        <v>3.1400000000000001</v>
+        <v>2.1400000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00040627242080898098</v>
+        <v>8.8981802300275458e-05</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00040367591047205147</v>
+        <v>6.0254903764448617e-05</v>
       </c>
       <c r="C10" s="0">
-        <v>0.00036815613066165924</v>
+        <v>3.4100000806918025e-05</v>
       </c>
       <c r="D10" s="0">
-        <v>0.0003015441351222715</v>
+        <v>4.0751943502594043e-05</v>
       </c>
       <c r="E10" s="0">
-        <v>0.00020047710502333043</v>
+        <v>1.8355841495836042e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>0.00015330305243696079</v>
+        <v>9.3682574573194363e-06</v>
       </c>
       <c r="G10" s="0">
-        <v>5.90204166114972e-05</v>
+        <v>3.0086952034992676e-06</v>
       </c>
       <c r="H10" s="0">
-        <v>3.1600000000000001</v>
+        <v>2.1600000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00039454981087671875</v>
+        <v>8.8998213661176768e-05</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00041847647917270893</v>
+        <v>5.9671654617645801e-05</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00036431901629764834</v>
+        <v>2.572472938347828e-05</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00030477699939377085</v>
+        <v>4.1245372981624904e-05</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00020032526258110736</v>
+        <v>1.8185946130483641e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0001533133836263563</v>
+        <v>9.5131835853354918e-06</v>
       </c>
       <c r="G11" s="0">
-        <v>5.8972482453970834e-05</v>
+        <v>3.0123465427965536e-06</v>
       </c>
       <c r="H11" s="0">
-        <v>3.1800000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.00039638451776005136</v>
+        <v>8.7041217079525439e-05</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00039487997656117719</v>
+        <v>5.9537508675481873e-05</v>
       </c>
       <c r="C12" s="0">
-        <v>0.00036123087369421548</v>
+        <v>5.8068725672380607e-06</v>
       </c>
       <c r="D12" s="0">
-        <v>0.00030840297578740286</v>
+        <v>4.1712517954868065e-05</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00020029600607238953</v>
+        <v>1.8016687060281774e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00015319061549310409</v>
+        <v>9.6352526857651512e-06</v>
       </c>
       <c r="G12" s="0">
-        <v>5.8965121260929346e-05</v>
+        <v>3.0193494316838702e-06</v>
       </c>
       <c r="H12" s="0">
-        <v>3.2000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.00039811165467056286</v>
+        <v>8.4849368423885435e-05</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00040675879871224598</v>
+        <v>5.8233648864983014e-05</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00036473234422800189</v>
+        <v>2.2253211091961485e-05</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0003088360339092536</v>
+        <v>4.2180533969055406e-05</v>
       </c>
       <c r="E13" s="0">
-        <v>0.00019595927691092344</v>
+        <v>1.7864688809485958e-05</v>
       </c>
       <c r="F13" s="0">
-        <v>0.00015460287450228577</v>
+        <v>9.7522347527861112e-06</v>
       </c>
       <c r="G13" s="0">
-        <v>5.8929993871556158e-05</v>
+        <v>3.0158134631336392e-06</v>
       </c>
       <c r="H13" s="0">
-        <v>3.2200000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.00037608317260050456</v>
+        <v>7.4821349487854083e-05</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00039030578174775548</v>
+        <v>5.7573910014210687e-05</v>
       </c>
       <c r="C14" s="0">
-        <v>0.00035929378227794669</v>
+        <v>5.5603328450821719e-05</v>
       </c>
       <c r="D14" s="0">
-        <v>0.00030837836555305196</v>
+        <v>3.7911233271559983e-05</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00020017590010083553</v>
+        <v>2.014781277784855e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00015286641284064241</v>
+        <v>1.1590882310697122e-05</v>
       </c>
       <c r="G14" s="0">
-        <v>5.8923594836536532e-05</v>
+        <v>2.7973915851830582e-06</v>
       </c>
       <c r="H14" s="0">
-        <v>3.2400000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0003739854176997536</v>
+        <v>8.2497442926963153e-05</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00038967897626692897</v>
+        <v>5.7762089221240754e-05</v>
       </c>
       <c r="C15" s="0">
-        <v>0.00035899016100013255</v>
+        <v>3.734827969066653e-05</v>
       </c>
       <c r="D15" s="0">
-        <v>0.00030838693561594356</v>
+        <v>4.2936424472621715e-05</v>
       </c>
       <c r="E15" s="0">
-        <v>0.00020017678256915115</v>
+        <v>1.8467483348189646e-05</v>
       </c>
       <c r="F15" s="0">
-        <v>0.00015275481475028629</v>
+        <v>9.989070437803609e-06</v>
       </c>
       <c r="G15" s="0">
-        <v>5.8911091906693579e-05</v>
+        <v>3.0429028508703921e-06</v>
       </c>
       <c r="H15" s="0">
-        <v>3.2599999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.00038873760840878012</v>
+        <v>7.2418884912205873e-05</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00039925642776150272</v>
+        <v>5.7769738994493293e-05</v>
       </c>
       <c r="C16" s="0">
-        <v>0.00036103989670846742</v>
+        <v>5.6193007125495e-05</v>
       </c>
       <c r="D16" s="0">
-        <v>0.00030884256763900127</v>
+        <v>3.7372053719538773e-05</v>
       </c>
       <c r="E16" s="0">
-        <v>0.00020028914689052956</v>
+        <v>2.0394575614319035e-05</v>
       </c>
       <c r="F16" s="0">
-        <v>0.00015278055930347692</v>
+        <v>1.1502558309961432e-05</v>
       </c>
       <c r="G16" s="0">
-        <v>5.8948335181234268e-05</v>
+        <v>2.7994597104579947e-06</v>
       </c>
       <c r="H16" s="0">
-        <v>3.2799999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0003933853639629249</v>
+        <v>7.9179102489235613e-05</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00039531090942342525</v>
+        <v>5.6393033179562823e-05</v>
       </c>
       <c r="C17" s="0">
-        <v>0.00036158669206414791</v>
+        <v>4.149928374030779e-05</v>
       </c>
       <c r="D17" s="0">
-        <v>0.00030877273876061401</v>
+        <v>4.4097535878177968e-05</v>
       </c>
       <c r="E17" s="0">
-        <v>0.00020018180459479282</v>
+        <v>1.8073091499542516e-05</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0001525956718238703</v>
+        <v>1.0032324639035118e-05</v>
       </c>
       <c r="G17" s="0">
-        <v>5.8922168302936775e-05</v>
+        <v>3.0409045198872593e-06</v>
       </c>
       <c r="H17" s="0">
-        <v>3.2999999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.00039532069966692314</v>
+        <v>7.7219894820345554e-05</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00038182873507929579</v>
+        <v>5.5696332639953475e-05</v>
       </c>
       <c r="C18" s="0">
-        <v>0.00035404594184121135</v>
+        <v>4.2749537303186074e-05</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0003084697512648533</v>
+        <v>4.4500082861820796e-05</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00020026640396407426</v>
+        <v>1.7992789920021832e-05</v>
       </c>
       <c r="F18" s="0">
-        <v>0.00015255855125056387</v>
+        <v>1.0092620537793212e-05</v>
       </c>
       <c r="G18" s="0">
-        <v>5.8859208461706813e-05</v>
+        <v>3.0261824332300644e-06</v>
       </c>
       <c r="H18" s="0">
-        <v>3.3199999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.00039004067367351457</v>
+        <v>6.9227672978885082e-05</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00039389949463278419</v>
+        <v>5.4165098118052854e-05</v>
       </c>
       <c r="C19" s="0">
-        <v>0.00036155145639846687</v>
+        <v>4.3618259075072418e-05</v>
       </c>
       <c r="D19" s="0">
-        <v>0.00030890822937686927</v>
+        <v>4.5265460119644061e-05</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00020010500442110797</v>
+        <v>1.7935749826593974e-05</v>
       </c>
       <c r="F19" s="0">
-        <v>0.00015235985938749549</v>
+        <v>1.0148975073538588e-05</v>
       </c>
       <c r="G19" s="0">
-        <v>5.8883388423086357e-05</v>
+        <v>3.0279225806516102e-06</v>
       </c>
       <c r="H19" s="0">
-        <v>3.3399999999999999</v>
+        <v>2.3399999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.00038078794601686868</v>
+        <v>7.4258826386604945e-05</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00039062633458141833</v>
+        <v>5.1678803282887841e-05</v>
       </c>
       <c r="C20" s="0">
-        <v>0.00035948371654549</v>
+        <v>4.389311727499351e-05</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0003088086373912911</v>
+        <v>4.5391502038769538e-05</v>
       </c>
       <c r="E20" s="0">
-        <v>0.00020026032738244655</v>
+        <v>1.7782743639198312e-05</v>
       </c>
       <c r="F20" s="0">
-        <v>0.00015237105263873451</v>
+        <v>1.0166020185416717e-05</v>
       </c>
       <c r="G20" s="0">
-        <v>5.8871685747253387e-05</v>
+        <v>3.0267414802326442e-06</v>
       </c>
       <c r="H20" s="0">
-        <v>3.3599999999999999</v>
+        <v>2.3599999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.00037980855564759752</v>
+        <v>7.2567451011424305e-05</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00040119758028936262</v>
+        <v>4.7651600758132702e-05</v>
       </c>
       <c r="C21" s="0">
-        <v>0.00036166799424969893</v>
+        <v>4.4366811744573531e-05</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00030900727324153316</v>
+        <v>4.5818922025520164e-05</v>
       </c>
       <c r="E21" s="0">
-        <v>0.00019904900411281688</v>
+        <v>1.7720936550139622e-05</v>
       </c>
       <c r="F21" s="0">
-        <v>0.00015234250792719043</v>
+        <v>1.020665990070375e-05</v>
       </c>
       <c r="G21" s="0">
-        <v>5.8813346109758442e-05</v>
+        <v>3.0403709166968613e-06</v>
       </c>
       <c r="H21" s="0">
-        <v>3.3799999999999999</v>
+        <v>2.3799999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.00037321183367006102</v>
+        <v>6.0485093802854726e-05</v>
       </c>
       <c r="B22" s="0">
-        <v>0.00039973314223549789</v>
+        <v>3.8744076861161126e-05</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00036066799309492705</v>
+        <v>4.4935786210987138e-05</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0003089543742626743</v>
+        <v>4.6465660289088776e-05</v>
       </c>
       <c r="E22" s="0">
-        <v>0.00020380911350647042</v>
+        <v>1.7689600497714663e-05</v>
       </c>
       <c r="F22" s="0">
-        <v>0.00015218021021259207</v>
+        <v>1.0277224342836966e-05</v>
       </c>
       <c r="G22" s="0">
-        <v>5.8892052224549105e-05</v>
+        <v>3.0456734644130656e-06</v>
       </c>
       <c r="H22" s="0">
-        <v>3.3999999999999999</v>
+        <v>2.3999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.00037618970085376063</v>
+        <v>7.1306639445586906e-05</v>
       </c>
       <c r="B23" s="0">
-        <v>0.00039684306887328064</v>
+        <v>1.6150564088333189e-05</v>
       </c>
       <c r="C23" s="0">
-        <v>0.00036082147822695526</v>
+        <v>4.5050959620725843e-05</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00030866460414323408</v>
+        <v>4.6830877027434377e-05</v>
       </c>
       <c r="E23" s="0">
-        <v>0.00020364734292990496</v>
+        <v>1.7557323323593967e-05</v>
       </c>
       <c r="F23" s="0">
-        <v>0.00015200561279414779</v>
+        <v>1.028389621804617e-05</v>
       </c>
       <c r="G23" s="0">
-        <v>5.8787283168799476e-05</v>
+        <v>3.0133210357134175e-06</v>
       </c>
       <c r="H23" s="0">
-        <v>3.4199999999999999</v>
+        <v>2.4199999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.00036128100137803243</v>
+        <v>6.7601634336064028e-05</v>
       </c>
       <c r="B24" s="0">
-        <v>0.00043344799814624784</v>
+        <v>2.6114579493035173e-05</v>
       </c>
       <c r="C24" s="0">
-        <v>0.00036157406570122346</v>
+        <v>4.5537628711964022e-05</v>
       </c>
       <c r="D24" s="0">
-        <v>0.00030840483165592758</v>
+        <v>4.6861010085876793e-05</v>
       </c>
       <c r="E24" s="0">
-        <v>0.00020349408450643047</v>
+        <v>1.7455687132747997e-05</v>
       </c>
       <c r="F24" s="0">
-        <v>0.00015186840729092727</v>
+        <v>1.0321739448506803e-05</v>
       </c>
       <c r="G24" s="0">
-        <v>5.8727978574707752e-05</v>
+        <v>3.0136575968621495e-06</v>
       </c>
       <c r="H24" s="0">
-        <v>3.4399999999999999</v>
+        <v>2.4399999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.00036426764373080384</v>
+        <v>6.8584781798983088e-05</v>
       </c>
       <c r="B25" s="0">
-        <v>0.00038935604178267068</v>
+        <v>4.1027311813010367e-05</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0003599847610197388</v>
+        <v>4.6675064351948415e-05</v>
       </c>
       <c r="D25" s="0">
-        <v>0.00030863336823999448</v>
+        <v>4.6910689771027686e-05</v>
       </c>
       <c r="E25" s="0">
-        <v>0.00020349684812093232</v>
+        <v>1.7456182890335106e-05</v>
       </c>
       <c r="F25" s="0">
-        <v>0.00015179481578336102</v>
+        <v>1.0379751424877243e-05</v>
       </c>
       <c r="G25" s="0">
-        <v>5.8722621933217977e-05</v>
+        <v>3.0299846438328986e-06</v>
       </c>
       <c r="H25" s="0">
-        <v>3.46</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.00035524713893108321</v>
+        <v>6.7933051150561436e-05</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00039292759689319145</v>
+        <v>4.8677300014099225e-05</v>
       </c>
       <c r="C26" s="0">
-        <v>0.00036273521886980801</v>
+        <v>4.6174172468139117e-05</v>
       </c>
       <c r="D26" s="0">
-        <v>0.00030795743004705518</v>
+        <v>4.7406394655858191e-05</v>
       </c>
       <c r="E26" s="0">
-        <v>0.00020342960190181255</v>
+        <v>1.7287391902608143e-05</v>
       </c>
       <c r="F26" s="0">
-        <v>0.00015176734660267291</v>
+        <v>1.0380065995808379e-05</v>
       </c>
       <c r="G26" s="0">
-        <v>5.868821446543979e-05</v>
+        <v>3.011271264151116e-06</v>
       </c>
       <c r="H26" s="0">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.00036638073782976004</v>
+        <v>6.7167506922441038e-05</v>
       </c>
       <c r="B27" s="0">
-        <v>0.00039529430601036329</v>
+        <v>5.2015256520567987e-05</v>
       </c>
       <c r="C27" s="0">
-        <v>0.00035974109542093917</v>
+        <v>4.6494451094083439e-05</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00030863116233326339</v>
+        <v>4.7532118330280333e-05</v>
       </c>
       <c r="E27" s="0">
-        <v>0.00020324851897090052</v>
+        <v>1.7209002907507979e-05</v>
       </c>
       <c r="F27" s="0">
-        <v>0.00015161999565106691</v>
+        <v>1.0407850984527624e-05</v>
       </c>
       <c r="G27" s="0">
-        <v>5.8668705789892474e-05</v>
+        <v>3.0089371595807092e-06</v>
       </c>
       <c r="H27" s="0">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.00036685464181137023</v>
+        <v>5.9325150073699661e-05</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00038311748811493479</v>
+        <v>5.3168575054338556e-05</v>
       </c>
       <c r="C28" s="0">
-        <v>0.00036010163687403738</v>
+        <v>4.6930911250647008e-05</v>
       </c>
       <c r="D28" s="0">
-        <v>0.00030863104363844796</v>
+        <v>4.5827502454991818e-05</v>
       </c>
       <c r="E28" s="0">
-        <v>0.00020318101502313151</v>
+        <v>1.7115298366476407e-05</v>
       </c>
       <c r="F28" s="0">
-        <v>0.00015149656960756669</v>
+        <v>1.0430412451969935e-05</v>
       </c>
       <c r="G28" s="0">
-        <v>5.8625648975181898e-05</v>
+        <v>3.0160881984805014e-06</v>
       </c>
       <c r="H28" s="0">
-        <v>3.52</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.00034475026085652015</v>
+        <v>6.4744034681426366e-05</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00039771425630744306</v>
+        <v>5.6202454264064226e-05</v>
       </c>
       <c r="C29" s="0">
-        <v>0.00036004575491137741</v>
+        <v>4.7279442820933912e-05</v>
       </c>
       <c r="D29" s="0">
-        <v>0.00030867186566752979</v>
+        <v>4.7751736153911373e-05</v>
       </c>
       <c r="E29" s="0">
-        <v>0.00020316857009546166</v>
+        <v>1.7030873795984307e-05</v>
       </c>
       <c r="F29" s="0">
-        <v>0.00015145130334170395</v>
+        <v>1.0467241061211447e-05</v>
       </c>
       <c r="G29" s="0">
-        <v>5.8593663201108166e-05</v>
+        <v>3.0150708046457378e-06</v>
       </c>
       <c r="H29" s="0">
-        <v>3.54</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0003425175982698612</v>
+        <v>6.6213652381384358e-05</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0003477221982031786</v>
+        <v>5.6562294621944346e-05</v>
       </c>
       <c r="C30" s="0">
-        <v>0.00034403643717069617</v>
+        <v>4.7437289799846162e-05</v>
       </c>
       <c r="D30" s="0">
-        <v>0.00031169457937544909</v>
+        <v>4.7472197728597718e-05</v>
       </c>
       <c r="E30" s="0">
-        <v>0.00020331533643276221</v>
+        <v>1.6925496647756457e-05</v>
       </c>
       <c r="F30" s="0">
-        <v>0.00015154714654806061</v>
+        <v>1.0505856947278326e-05</v>
       </c>
       <c r="G30" s="0">
-        <v>5.859666237422637e-05</v>
+        <v>2.9253944323594699e-06</v>
       </c>
       <c r="H30" s="0">
-        <v>3.5600000000000001</v>
+        <v>2.5600000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.00033652788910036558</v>
+        <v>6.5913341468856735e-05</v>
       </c>
       <c r="B31" s="0">
-        <v>0.00039460389289859468</v>
+        <v>5.8815074477313285e-05</v>
       </c>
       <c r="C31" s="0">
-        <v>0.00035971884392338877</v>
+        <v>4.7882900208731438e-05</v>
       </c>
       <c r="D31" s="0">
-        <v>0.00030831483876039015</v>
+        <v>4.7061671198690542e-05</v>
       </c>
       <c r="E31" s="0">
-        <v>0.00020305277834322991</v>
+        <v>1.6852836113802804e-05</v>
       </c>
       <c r="F31" s="0">
-        <v>0.00015137912221277526</v>
+        <v>1.0529703081102685e-05</v>
       </c>
       <c r="G31" s="0">
-        <v>5.8532002927792911e-05</v>
+        <v>3.07759757434432e-06</v>
       </c>
       <c r="H31" s="0">
-        <v>3.5800000000000001</v>
+        <v>2.5800000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.00032139413534705704</v>
+        <v>6.5682978467676537e-05</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00042468466990226001</v>
+        <v>5.7291413008752629e-05</v>
       </c>
       <c r="C32" s="0">
-        <v>0.00035959117859044867</v>
+        <v>4.8211477304096579e-05</v>
       </c>
       <c r="D32" s="0">
-        <v>0.00030855880600000568</v>
+        <v>4.6524152078709974e-05</v>
       </c>
       <c r="E32" s="0">
-        <v>0.00020293642644737475</v>
+        <v>1.6828217541121729e-05</v>
       </c>
       <c r="F32" s="0">
-        <v>0.00015129302325078798</v>
+        <v>1.0592679326370382e-05</v>
       </c>
       <c r="G32" s="0">
-        <v>5.8561748906937641e-05</v>
+        <v>3.072491259527967e-06</v>
       </c>
       <c r="H32" s="0">
-        <v>3.6000000000000001</v>
+        <v>2.6000000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0003365076418858928</v>
+        <v>5.9460854889145541e-05</v>
       </c>
       <c r="B33" s="0">
-        <v>0.00041716358427047149</v>
+        <v>5.4843562860350251e-05</v>
       </c>
       <c r="C33" s="0">
-        <v>0.0003604204642236205</v>
+        <v>4.9756278946892233e-05</v>
       </c>
       <c r="D33" s="0">
-        <v>0.00030725714975266276</v>
+        <v>4.5950922481599137e-05</v>
       </c>
       <c r="E33" s="0">
-        <v>0.00020274168983189467</v>
+        <v>1.6679357199750014e-05</v>
       </c>
       <c r="F33" s="0">
-        <v>0.00015116453477191619</v>
+        <v>1.0610262333892499e-05</v>
       </c>
       <c r="G33" s="0">
-        <v>5.844767315918536e-05</v>
+        <v>3.0661469341730831e-06</v>
       </c>
       <c r="H33" s="0">
-        <v>3.6200000000000001</v>
+        <v>2.6200000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.00031412221758015047</v>
+        <v>6.0254518747998722e-05</v>
       </c>
       <c r="B34" s="0">
-        <v>0.00039009459105911827</v>
+        <v>5.8760780047796064e-05</v>
       </c>
       <c r="C34" s="0">
-        <v>0.00035782454315100363</v>
+        <v>5.0674804502513432e-05</v>
       </c>
       <c r="D34" s="0">
-        <v>0.00030901727318147627</v>
+        <v>4.5611626014889918e-05</v>
       </c>
       <c r="E34" s="0">
-        <v>0.00020257764966924915</v>
+        <v>1.6521813274449778e-05</v>
       </c>
       <c r="F34" s="0">
-        <v>0.00015101850668360639</v>
+        <v>1.0623042251821384e-05</v>
       </c>
       <c r="G34" s="0">
-        <v>5.8324076359841416e-05</v>
+        <v>3.0732934707206744e-06</v>
       </c>
       <c r="H34" s="0">
-        <v>3.6400000000000001</v>
+        <v>2.6400000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.00033171421883024309</v>
+        <v>5.4914188767989416e-05</v>
       </c>
       <c r="B35" s="0">
-        <v>0.00039457782788744123</v>
+        <v>6.0385506127667119e-05</v>
       </c>
       <c r="C35" s="0">
-        <v>0.00035827241816359053</v>
+        <v>5.1631493262335973e-05</v>
       </c>
       <c r="D35" s="0">
-        <v>0.00030984303721000582</v>
+        <v>4.5281696172824408e-05</v>
       </c>
       <c r="E35" s="0">
-        <v>0.00020260811397171887</v>
+        <v>1.6387809044915512e-05</v>
       </c>
       <c r="F35" s="0">
-        <v>0.00015105558185649122</v>
+        <v>1.061481641681757e-05</v>
       </c>
       <c r="G35" s="0">
-        <v>5.8317674229310577e-05</v>
+        <v>3.0583230247196965e-06</v>
       </c>
       <c r="H35" s="0">
-        <v>3.6600000000000001</v>
+        <v>2.6600000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.00029000441050795457</v>
+        <v>4.7705404159298359e-05</v>
       </c>
       <c r="B36" s="0">
-        <v>0.00039301926056547115</v>
+        <v>5.9852518639158986e-05</v>
       </c>
       <c r="C36" s="0">
-        <v>0.00035656841076946963</v>
+        <v>5.2294476838716744e-05</v>
       </c>
       <c r="D36" s="0">
-        <v>0.00030987862021276621</v>
+        <v>4.4662089457966141e-05</v>
       </c>
       <c r="E36" s="0">
-        <v>0.00020245185821257769</v>
+        <v>1.6433624090825944e-05</v>
       </c>
       <c r="F36" s="0">
-        <v>0.00015094180009803286</v>
+        <v>1.0656785023517124e-05</v>
       </c>
       <c r="G36" s="0">
-        <v>5.9256807128559365e-05</v>
+        <v>2.9973264722036602e-06</v>
       </c>
       <c r="H36" s="0">
-        <v>3.6800000000000002</v>
+        <v>2.6800000000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.00032022466524977853</v>
+        <v>2.5690619270323592e-05</v>
       </c>
       <c r="B37" s="0">
-        <v>0.00037521596750812579</v>
+        <v>6.0259510958794047e-05</v>
       </c>
       <c r="C37" s="0">
-        <v>0.0003568823104010241</v>
+        <v>5.3596979489700909e-05</v>
       </c>
       <c r="D37" s="0">
-        <v>0.00030928140022605668</v>
+        <v>4.447892282061821e-05</v>
       </c>
       <c r="E37" s="0">
-        <v>0.00020178049536506538</v>
+        <v>1.615909474955321e-05</v>
       </c>
       <c r="F37" s="0">
-        <v>0.00015041044888373321</v>
+        <v>1.0734209841829416e-05</v>
       </c>
       <c r="G37" s="0">
-        <v>6.0191718934207421e-05</v>
+        <v>3.0423314608400778e-06</v>
       </c>
       <c r="H37" s="0">
-        <v>3.7000000000000002</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.00032746483770421906</v>
+        <v>2.874557381784587e-05</v>
       </c>
       <c r="B38" s="0">
-        <v>0.00039458793726047611</v>
+        <v>6.0234391776486672e-05</v>
       </c>
       <c r="C38" s="0">
-        <v>0.00035698343572756824</v>
+        <v>5.3832655201253952e-05</v>
       </c>
       <c r="D38" s="0">
-        <v>0.00030948715006740837</v>
+        <v>4.3859419300093244e-05</v>
       </c>
       <c r="E38" s="0">
-        <v>0.00020273522600183999</v>
+        <v>1.6001929565026419e-05</v>
       </c>
       <c r="F38" s="0">
-        <v>0.00015064546657314585</v>
+        <v>1.0756995580077444e-05</v>
       </c>
       <c r="G38" s="0">
-        <v>6.0166555255173999e-05</v>
+        <v>3.0378135212392612e-06</v>
       </c>
       <c r="H38" s="0">
-        <v>3.7200000000000002</v>
+        <v>2.7200000000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.00032022938836031716</v>
+        <v>4.8492283825859065e-05</v>
       </c>
       <c r="B39" s="0">
-        <v>0.00038767199362713735</v>
+        <v>6.1567236441644531e-05</v>
       </c>
       <c r="C39" s="0">
-        <v>0.00035979599139708486</v>
+        <v>5.4646178353820351e-05</v>
       </c>
       <c r="D39" s="0">
-        <v>0.00030917449633797783</v>
+        <v>4.3275700990245249e-05</v>
       </c>
       <c r="E39" s="0">
-        <v>0.00020207837390529102</v>
+        <v>1.5783804919158742e-05</v>
       </c>
       <c r="F39" s="0">
-        <v>0.00015075009475252243</v>
+        <v>1.0796475403868552e-05</v>
       </c>
       <c r="G39" s="0">
-        <v>6.0122017335334907e-05</v>
+        <v>3.0293129065978701e-06</v>
       </c>
       <c r="H39" s="0">
-        <v>3.7400000000000002</v>
+        <v>2.7400000000000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0003195089500145143</v>
+        <v>5.6391075994435865e-05</v>
       </c>
       <c r="B40" s="0">
-        <v>0.00037405016479632433</v>
+        <v>6.2109286100116211e-05</v>
       </c>
       <c r="C40" s="0">
-        <v>0.00036197298896193942</v>
+        <v>5.5400661190957296e-05</v>
       </c>
       <c r="D40" s="0">
-        <v>0.00030890535004595148</v>
+        <v>4.2744607823796668e-05</v>
       </c>
       <c r="E40" s="0">
-        <v>0.00020135653439132912</v>
+        <v>1.5566888841518352e-05</v>
       </c>
       <c r="F40" s="0">
-        <v>0.00015021999947135504</v>
+        <v>1.0830296029176769e-05</v>
       </c>
       <c r="G40" s="0">
-        <v>6.0045059220293408e-05</v>
+        <v>3.022866424530161e-06</v>
       </c>
       <c r="H40" s="0">
-        <v>3.7599999999999998</v>
+        <v>2.7599999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.00031763358350392622</v>
+        <v>5.8436789783434819e-05</v>
       </c>
       <c r="B41" s="0">
-        <v>0.00039188905088376148</v>
+        <v>6.401945728473136e-05</v>
       </c>
       <c r="C41" s="0">
-        <v>0.00036174776334343755</v>
+        <v>5.5856682089250832e-05</v>
       </c>
       <c r="D41" s="0">
-        <v>0.00030933434833124192</v>
+        <v>4.2181895704162853e-05</v>
       </c>
       <c r="E41" s="0">
-        <v>0.00020187261070954283</v>
+        <v>1.5306495573612568e-05</v>
       </c>
       <c r="F41" s="0">
-        <v>0.00015065653412553082</v>
+        <v>1.0862059366149323e-05</v>
       </c>
       <c r="G41" s="0">
-        <v>6.0087068374141922e-05</v>
+        <v>3.0140558819652728e-06</v>
       </c>
       <c r="H41" s="0">
-        <v>3.7799999999999998</v>
+        <v>2.7799999999999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.00031528484212625202</v>
+        <v>6.2795140154698405e-05</v>
       </c>
       <c r="B42" s="0">
-        <v>0.00038505343080504219</v>
+        <v>6.503748335473015e-05</v>
       </c>
       <c r="C42" s="0">
-        <v>0.00036239855081381421</v>
+        <v>5.6627750245438988e-05</v>
       </c>
       <c r="D42" s="0">
-        <v>0.00030950347894177722</v>
+        <v>4.1693796242188898e-05</v>
       </c>
       <c r="E42" s="0">
-        <v>0.00020176641934934418</v>
+        <v>1.4939134884739224e-05</v>
       </c>
       <c r="F42" s="0">
-        <v>0.00015058561658310701</v>
+        <v>1.0899766577504364e-05</v>
       </c>
       <c r="G42" s="0">
-        <v>6.0045154827822795e-05</v>
+        <v>2.9928140296999054e-06</v>
       </c>
       <c r="H42" s="0">
-        <v>3.7999999999999998</v>
+        <v>2.7999999999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.00032353092882192577</v>
+        <v>6.0682150456454085e-05</v>
       </c>
       <c r="B43" s="0">
-        <v>0.00039118218581280124</v>
+        <v>6.5777502178393477e-05</v>
       </c>
       <c r="C43" s="0">
-        <v>0.00036188108421102199</v>
+        <v>5.7305644602876536e-05</v>
       </c>
       <c r="D43" s="0">
-        <v>0.00030918449924737933</v>
+        <v>4.1129674957393516e-05</v>
       </c>
       <c r="E43" s="0">
-        <v>0.00020162682024002932</v>
+        <v>1.4473377610133675e-05</v>
       </c>
       <c r="F43" s="0">
-        <v>0.00015053546909505277</v>
+        <v>1.0926953115239466e-05</v>
       </c>
       <c r="G43" s="0">
-        <v>5.9960466124281278e-05</v>
+        <v>3.0021818305380546e-06</v>
       </c>
       <c r="H43" s="0">
-        <v>3.8199999999999998</v>
+        <v>2.8199999999999998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.00032923813921516585</v>
+        <v>5.9997863574803859e-05</v>
       </c>
       <c r="B44" s="0">
-        <v>0.00039980698637733306</v>
+        <v>6.7602056952093236e-05</v>
       </c>
       <c r="C44" s="0">
-        <v>0.00036127656347805133</v>
+        <v>5.8033819719960846e-05</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0003093094313603414</v>
+        <v>4.0482020650953274e-05</v>
       </c>
       <c r="E44" s="0">
-        <v>0.00020150446400371032</v>
+        <v>1.376537231143207e-05</v>
       </c>
       <c r="F44" s="0">
-        <v>0.00015047939015216678</v>
+        <v>1.0968709473672198e-05</v>
       </c>
       <c r="G44" s="0">
-        <v>5.9977089656184107e-05</v>
+        <v>3.0096288464313699e-06</v>
       </c>
       <c r="H44" s="0">
-        <v>3.8399999999999999</v>
+        <v>2.8399999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.00032905567641200456</v>
+        <v>6.3697389320583621e-05</v>
       </c>
       <c r="B45" s="0">
-        <v>0.00039961329386093195</v>
+        <v>6.9400317871671442e-05</v>
       </c>
       <c r="C45" s="0">
-        <v>0.00036118892833850456</v>
+        <v>5.9199008455089039e-05</v>
       </c>
       <c r="D45" s="0">
-        <v>0.00030929357800255276</v>
+        <v>4.001394815547606e-05</v>
       </c>
       <c r="E45" s="0">
-        <v>0.00020136083772826597</v>
+        <v>1.2851992697713866e-05</v>
       </c>
       <c r="F45" s="0">
-        <v>0.00015041682294176476</v>
+        <v>1.1590359690431253e-05</v>
       </c>
       <c r="G45" s="0">
-        <v>5.994675114328952e-05</v>
+        <v>3.0026520702181716e-06</v>
       </c>
       <c r="H45" s="0">
-        <v>3.8599999999999999</v>
+        <v>2.8599999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.0003288353137775084</v>
+        <v>6.2387952550626915e-05</v>
       </c>
       <c r="B46" s="0">
-        <v>0.00039942801533830627</v>
+        <v>8.1842609801721075e-05</v>
       </c>
       <c r="C46" s="0">
-        <v>0.00036110233832871327</v>
+        <v>5.1289973765542352e-05</v>
       </c>
       <c r="D46" s="0">
-        <v>0.000309280976577957</v>
+        <v>3.3203201054852089e-05</v>
       </c>
       <c r="E46" s="0">
-        <v>0.00020122218336876641</v>
+        <v>2.1926010634067977e-05</v>
       </c>
       <c r="F46" s="0">
-        <v>0.00015037262642262871</v>
+        <v>1.0042695428220758e-05</v>
       </c>
       <c r="G46" s="0">
-        <v>5.9918095091467521e-05</v>
+        <v>2.9488030381899084e-06</v>
       </c>
       <c r="H46" s="0">
-        <v>3.8799999999999999</v>
+        <v>2.8799999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.00030154592486338305</v>
+        <v>6.5300314105698674e-05</v>
       </c>
       <c r="B47" s="0">
-        <v>0.00039349901546220244</v>
+        <v>7.9436545123169738e-05</v>
       </c>
       <c r="C47" s="0">
-        <v>0.00036277767881344962</v>
+        <v>5.0323841233730827e-05</v>
       </c>
       <c r="D47" s="0">
-        <v>0.00030922702598104682</v>
+        <v>3.3542784126250738e-05</v>
       </c>
       <c r="E47" s="0">
-        <v>0.00020103129597030304</v>
+        <v>2.1756441737700634e-05</v>
       </c>
       <c r="F47" s="0">
-        <v>0.00015029961549365261</v>
+        <v>9.9487139100902344e-06</v>
       </c>
       <c r="G47" s="0">
-        <v>5.9826377804447333e-05</v>
+        <v>2.9406192151564353e-06</v>
       </c>
       <c r="H47" s="0">
-        <v>3.8999999999999999</v>
+        <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0003177785482818185</v>
+        <v>6.1408019990330401e-05</v>
       </c>
       <c r="B48" s="0">
-        <v>0.00039657104789849352</v>
+        <v>7.997988099787814e-05</v>
       </c>
       <c r="C48" s="0">
-        <v>0.00036137655186563658</v>
+        <v>4.9236617712103677e-05</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0003090515226081284</v>
+        <v>3.3832980896874011e-05</v>
       </c>
       <c r="E48" s="0">
-        <v>0.00020089919743472061</v>
+        <v>2.1602489077426321e-05</v>
       </c>
       <c r="F48" s="0">
-        <v>0.00015026459021651227</v>
+        <v>9.8287980316545269e-06</v>
       </c>
       <c r="G48" s="0">
-        <v>5.9850830095855691e-05</v>
+        <v>2.9489210069066882e-06</v>
       </c>
       <c r="H48" s="0">
-        <v>3.9199999999999999</v>
+        <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.00031622178097537242</v>
+        <v>6.171655517750281e-05</v>
       </c>
       <c r="B49" s="0">
-        <v>0.00040217209293764338</v>
+        <v>7.9298662427164485e-05</v>
       </c>
       <c r="C49" s="0">
-        <v>0.00036219756836051856</v>
+        <v>4.9590590902947915e-05</v>
       </c>
       <c r="D49" s="0">
-        <v>0.00030880504960592006</v>
+        <v>3.4098200596023358e-05</v>
       </c>
       <c r="E49" s="0">
-        <v>0.00020043556811077332</v>
+        <v>2.1438709357746581e-05</v>
       </c>
       <c r="F49" s="0">
-        <v>0.0001497879365572485</v>
+        <v>9.6700935818809349e-06</v>
       </c>
       <c r="G49" s="0">
-        <v>5.9639021505383231e-05</v>
+        <v>2.9568067548273343e-06</v>
       </c>
       <c r="H49" s="0">
-        <v>3.9399999999999999</v>
+        <v>2.9399999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.00032353874853926676</v>
+        <v>6.1925231457271468e-05</v>
       </c>
       <c r="B50" s="0">
-        <v>0.00039437269813811653</v>
+        <v>7.5335778358087167e-05</v>
       </c>
       <c r="C50" s="0">
-        <v>0.00036170503344199812</v>
+        <v>4.9125853542041694e-05</v>
       </c>
       <c r="D50" s="0">
-        <v>0.00030905725403704867</v>
+        <v>3.4342325185147369e-05</v>
       </c>
       <c r="E50" s="0">
-        <v>0.00020062861781217938</v>
+        <v>2.1267585966498794e-05</v>
       </c>
       <c r="F50" s="0">
-        <v>0.00015018646387083827</v>
+        <v>9.5093041940458884e-06</v>
       </c>
       <c r="G50" s="0">
-        <v>5.9812176887018517e-05</v>
+        <v>2.9636660917338571e-06</v>
       </c>
       <c r="H50" s="0">
-        <v>3.96</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.00031452415562767324</v>
+        <v>7.0227890818313582e-05</v>
       </c>
       <c r="B51" s="0">
-        <v>0.00039737249770173372</v>
+        <v>7.7017559844163322e-05</v>
       </c>
       <c r="C51" s="0">
-        <v>0.00036161034692481684</v>
+        <v>4.8855414113873908e-05</v>
       </c>
       <c r="D51" s="0">
-        <v>0.0003091298804168514</v>
+        <v>3.4582665481758691e-05</v>
       </c>
       <c r="E51" s="0">
-        <v>0.00020038435404626015</v>
+        <v>2.1106336955121253e-05</v>
       </c>
       <c r="F51" s="0">
-        <v>0.00015336607293972278</v>
+        <v>9.2862306572737702e-06</v>
       </c>
       <c r="G51" s="0">
-        <v>5.974071474130637e-05</v>
+        <v>2.9570745414736866e-06</v>
       </c>
       <c r="H51" s="0">
-        <v>3.98</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.00031810394453751908</v>
+        <v>0.00043204701266134486</v>
       </c>
       <c r="B52" s="0">
-        <v>0.00039558484072263429</v>
+        <v>0.00040485928106542872</v>
       </c>
       <c r="C52" s="0">
-        <v>0.0003610307512666398</v>
+        <v>0.00036508727537457595</v>
       </c>
       <c r="D52" s="0">
-        <v>0.00030890854639030886</v>
+        <v>0.00030584863861959428</v>
       </c>
       <c r="E52" s="0">
-        <v>0.00020032196860082267</v>
+        <v>0.00020032406458388448</v>
       </c>
       <c r="F52" s="0">
-        <v>0.0001534913295246183</v>
+        <v>0.00015395063385467608</v>
       </c>
       <c r="G52" s="0">
-        <v>5.9759746546676469e-05</v>
+        <v>5.9029835377407806e-05</v>
       </c>
       <c r="H52" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>4.423892894201493e-05</v>
+        <v>0.00042180598181173839</v>
       </c>
       <c r="B53" s="0">
-        <v>6.797167781487556e-05</v>
+        <v>0.00040255671663336266</v>
       </c>
       <c r="C53" s="0">
-        <v>6.0623176163709209e-05</v>
+        <v>0.0003644011414216908</v>
       </c>
       <c r="D53" s="0">
-        <v>3.8414633188678737e-05</v>
+        <v>0.00030568929529429297</v>
       </c>
       <c r="E53" s="0">
-        <v>5.4615319657404338e-06</v>
+        <v>0.0002003818005235976</v>
       </c>
       <c r="F53" s="0">
-        <v>1.1845155172582192e-05</v>
+        <v>0.00015391777611711813</v>
       </c>
       <c r="G53" s="0">
-        <v>2.9634811518838751e-06</v>
+        <v>5.9056696993372399e-05</v>
       </c>
       <c r="H53" s="0">
-        <v>4.0199999999999996</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>4.1538397860794584e-05</v>
+        <v>0.00042818061471334675</v>
       </c>
       <c r="B54" s="0">
-        <v>6.8553156094501195e-05</v>
+        <v>0.00039142673691184654</v>
       </c>
       <c r="C54" s="0">
-        <v>6.1384050015718869e-05</v>
+        <v>0.00036337372261663272</v>
       </c>
       <c r="D54" s="0">
-        <v>3.7889339672581331e-05</v>
+        <v>0.00030529800177663409</v>
       </c>
       <c r="E54" s="0">
-        <v>3.4761390907859358e-06</v>
+        <v>0.00019990272420655341</v>
       </c>
       <c r="F54" s="0">
-        <v>1.1916989675886675e-05</v>
+        <v>0.00015423001801929945</v>
       </c>
       <c r="G54" s="0">
-        <v>2.9519666141827322e-06</v>
+        <v>5.9095326169308802e-05</v>
       </c>
       <c r="H54" s="0">
-        <v>4.04</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>4.4118610067013075e-05</v>
+        <v>0.00041864159522957909</v>
       </c>
       <c r="B55" s="0">
-        <v>7.0224200936785884e-05</v>
+        <v>0.00040004651067364816</v>
       </c>
       <c r="C55" s="0">
-        <v>6.0651220057568866e-05</v>
+        <v>0.00036418426270481204</v>
       </c>
       <c r="D55" s="0">
-        <v>3.702648200801287e-05</v>
+        <v>0.00030544769431191756</v>
       </c>
       <c r="E55" s="0">
-        <v>8.2797426736322836e-06</v>
+        <v>0.00020035585608100371</v>
       </c>
       <c r="F55" s="0">
-        <v>1.2104720173671084e-05</v>
+        <v>0.00015369020823191169</v>
       </c>
       <c r="G55" s="0">
-        <v>2.8188126957137002e-06</v>
+        <v>5.9061671371067744e-05</v>
       </c>
       <c r="H55" s="0">
-        <v>4.0599999999999996</v>
+        <v>3.0600000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>4.4118610067013075e-05</v>
+        <v>0.0004146750780427342</v>
       </c>
       <c r="B56" s="0">
-        <v>7.0224200936785884e-05</v>
+        <v>0.00039799023510839529</v>
       </c>
       <c r="C56" s="0">
-        <v>6.0651220057568866e-05</v>
+        <v>0.00036445841359236252</v>
       </c>
       <c r="D56" s="0">
-        <v>3.702648200801287e-05</v>
+        <v>0.00030512352636370352</v>
       </c>
       <c r="E56" s="0">
-        <v>8.2797426736322836e-06</v>
+        <v>0.00020040622969810142</v>
       </c>
       <c r="F56" s="0">
-        <v>1.2104720173671084e-05</v>
+        <v>0.00015561820823636625</v>
       </c>
       <c r="G56" s="0">
-        <v>2.8188126957137002e-06</v>
+        <v>5.9059763083813014e-05</v>
       </c>
       <c r="H56" s="0">
-        <v>4.0800000000000001</v>
+        <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>4.4200235137057595e-05</v>
+        <v>0.00040070606235590339</v>
       </c>
       <c r="B57" s="0">
-        <v>7.2190864050553381e-05</v>
+        <v>0.00041752449174868518</v>
       </c>
       <c r="C57" s="0">
-        <v>5.8622495569302793e-05</v>
+        <v>0.00036286051327588713</v>
       </c>
       <c r="D57" s="0">
-        <v>3.7231771476813744e-05</v>
+        <v>0.00030497413777422937</v>
       </c>
       <c r="E57" s="0">
-        <v>1.2669676577555342e-05</v>
+        <v>0.00020031074653646268</v>
       </c>
       <c r="F57" s="0">
-        <v>1.2273971886489443e-05</v>
+        <v>0.00015347705716571867</v>
       </c>
       <c r="G57" s="0">
-        <v>2.803634198792013e-06</v>
+        <v>5.9022895127794049e-05</v>
       </c>
       <c r="H57" s="0">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>4.1964882198611262e-05</v>
+        <v>0.00041504220617495641</v>
       </c>
       <c r="B58" s="0">
-        <v>7.1771360644460125e-05</v>
+        <v>0.0003969865037376107</v>
       </c>
       <c r="C58" s="0">
-        <v>4.887992186748822e-05</v>
+        <v>0.00036303193273855516</v>
       </c>
       <c r="D58" s="0">
-        <v>3.4195063265118418e-05</v>
+        <v>0.00030497706280023431</v>
       </c>
       <c r="E58" s="0">
-        <v>2.1241801503032721e-05</v>
+        <v>0.00020025947071722832</v>
       </c>
       <c r="F58" s="0">
-        <v>9.4903110535979254e-06</v>
+        <v>0.00015333851660566305</v>
       </c>
       <c r="G58" s="0">
-        <v>2.9460412391876936e-06</v>
+        <v>5.905128999570219e-05</v>
       </c>
       <c r="H58" s="0">
-        <v>4.1200000000000001</v>
+        <v>3.1200000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>4.4217150117121418e-05</v>
+        <v>0.00040266067068885092</v>
       </c>
       <c r="B59" s="0">
-        <v>7.0659328638076282e-05</v>
+        <v>0.00040019764063623772</v>
       </c>
       <c r="C59" s="0">
-        <v>4.8025049581833344e-05</v>
+        <v>0.00036583304668437688</v>
       </c>
       <c r="D59" s="0">
-        <v>3.4525917079646942e-05</v>
+        <v>0.00030541712262834644</v>
       </c>
       <c r="E59" s="0">
-        <v>2.1059072225572131e-05</v>
+        <v>0.00020031686185820145</v>
       </c>
       <c r="F59" s="0">
-        <v>9.2963798115808141e-06</v>
+        <v>0.00015341493265659951</v>
       </c>
       <c r="G59" s="0">
-        <v>2.9564471289857524e-06</v>
+        <v>5.9025841918199787e-05</v>
       </c>
       <c r="H59" s="0">
-        <v>4.1399999999999997</v>
+        <v>3.1400000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>5.3679405648874387e-05</v>
+        <v>0.00040627242080898098</v>
       </c>
       <c r="B60" s="0">
-        <v>6.8583491251847297e-05</v>
+        <v>0.00040367591047205147</v>
       </c>
       <c r="C60" s="0">
-        <v>4.8153345591904863e-05</v>
+        <v>0.00036815613066165924</v>
       </c>
       <c r="D60" s="0">
-        <v>3.496282189436685e-05</v>
+        <v>0.0003015441351222715</v>
       </c>
       <c r="E60" s="0">
-        <v>2.0886777073724723e-05</v>
+        <v>0.00020047710502333043</v>
       </c>
       <c r="F60" s="0">
-        <v>8.9910531510011589e-06</v>
+        <v>0.00015330305243696079</v>
       </c>
       <c r="G60" s="0">
-        <v>2.9548925037653509e-06</v>
+        <v>5.90204166114972e-05</v>
       </c>
       <c r="H60" s="0">
-        <v>4.1600000000000001</v>
+        <v>3.1600000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>5.4518127868117199e-05</v>
+        <v>0.00039454981087671875</v>
       </c>
       <c r="B61" s="0">
-        <v>6.730648678947846e-05</v>
+        <v>0.00041847647917270893</v>
       </c>
       <c r="C61" s="0">
-        <v>4.7454156772701446e-05</v>
+        <v>0.00036431901629764834</v>
       </c>
       <c r="D61" s="0">
-        <v>3.4948576510081195e-05</v>
+        <v>0.00030477699939377085</v>
       </c>
       <c r="E61" s="0">
-        <v>2.071963400541123e-05</v>
+        <v>0.00020032526258110736</v>
       </c>
       <c r="F61" s="0">
-        <v>8.5343840737726687e-06</v>
+        <v>0.0001533133836263563</v>
       </c>
       <c r="G61" s="0">
-        <v>2.9714061580459627e-06</v>
+        <v>5.8972482453970834e-05</v>
       </c>
       <c r="H61" s="0">
-        <v>4.1799999999999997</v>
+        <v>3.1800000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>5.3912331597479809e-05</v>
+        <v>0.00039638451776005136</v>
       </c>
       <c r="B62" s="0">
-        <v>6.6149627832487787e-05</v>
+        <v>0.00039487997656117719</v>
       </c>
       <c r="C62" s="0">
-        <v>4.7043427177356073e-05</v>
+        <v>0.00036123087369421548</v>
       </c>
       <c r="D62" s="0">
-        <v>3.5172206842729347e-05</v>
+        <v>0.00030840297578740286</v>
       </c>
       <c r="E62" s="0">
-        <v>2.0534371636896774e-05</v>
+        <v>0.00020029600607238953</v>
       </c>
       <c r="F62" s="0">
-        <v>7.9744912211084811e-06</v>
+        <v>0.00015319061549310409</v>
       </c>
       <c r="G62" s="0">
-        <v>2.9753142382554549e-06</v>
+        <v>5.8965121260929346e-05</v>
       </c>
       <c r="H62" s="0">
-        <v>4.2000000000000002</v>
+        <v>3.2000000000000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>5.1803918738805748e-05</v>
+        <v>0.00039811165467056286</v>
       </c>
       <c r="B63" s="0">
-        <v>6.439965225474905e-05</v>
+        <v>0.00040675879871224598</v>
       </c>
       <c r="C63" s="0">
-        <v>4.6660748605965775e-05</v>
+        <v>0.00036473234422800189</v>
       </c>
       <c r="D63" s="0">
-        <v>3.5436036078012272e-05</v>
+        <v>0.0003088360339092536</v>
       </c>
       <c r="E63" s="0">
-        <v>2.0366470354629896e-05</v>
+        <v>0.00019595927691092344</v>
       </c>
       <c r="F63" s="0">
-        <v>7.1838396824379384e-06</v>
+        <v>0.00015460287450228577</v>
       </c>
       <c r="G63" s="0">
-        <v>2.9736869956264304e-06</v>
+        <v>5.8929993871556158e-05</v>
       </c>
       <c r="H63" s="0">
-        <v>4.2199999999999998</v>
+        <v>3.2200000000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>5.1175612043549235e-05</v>
+        <v>0.00037608317260050456</v>
       </c>
       <c r="B64" s="0">
-        <v>6.3182823885156976e-05</v>
+        <v>0.00039030578174775548</v>
       </c>
       <c r="C64" s="0">
-        <v>4.6252187194707872e-05</v>
+        <v>0.00035929378227794669</v>
       </c>
       <c r="D64" s="0">
-        <v>3.5665741317181542e-05</v>
+        <v>0.00030837836555305196</v>
       </c>
       <c r="E64" s="0">
-        <v>2.0181336056397291e-05</v>
+        <v>0.00020017590010083553</v>
       </c>
       <c r="F64" s="0">
-        <v>6.0196873884809078e-06</v>
+        <v>0.00015286641284064241</v>
       </c>
       <c r="G64" s="0">
-        <v>2.9773072906228392e-06</v>
+        <v>5.8923594836536532e-05</v>
       </c>
       <c r="H64" s="0">
-        <v>4.2400000000000002</v>
+        <v>3.2400000000000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>5.0546150932028662e-05</v>
+        <v>0.0003739854176997536</v>
       </c>
       <c r="B65" s="0">
-        <v>6.2240017959353054e-05</v>
+        <v>0.00038967897626692897</v>
       </c>
       <c r="C65" s="0">
-        <v>4.5818604618458579e-05</v>
+        <v>0.00035899016100013255</v>
       </c>
       <c r="D65" s="0">
-        <v>3.5904922432105404e-05</v>
+        <v>0.00030838693561594356</v>
       </c>
       <c r="E65" s="0">
-        <v>2.0000038953885224e-05</v>
+        <v>0.00020017678256915115</v>
       </c>
       <c r="F65" s="0">
-        <v>4.2308162434422274e-06</v>
+        <v>0.00015275481475028629</v>
       </c>
       <c r="G65" s="0">
-        <v>2.9810406187424935e-06</v>
+        <v>5.8911091906693579e-05</v>
       </c>
       <c r="H65" s="0">
-        <v>4.2599999999999998</v>
+        <v>3.2599999999999998</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>4.3662147103162614e-05</v>
+        <v>0.00038873760840878012</v>
       </c>
       <c r="B66" s="0">
-        <v>6.1552214280757807e-05</v>
+        <v>0.00039925642776150272</v>
       </c>
       <c r="C66" s="0">
-        <v>4.4143508623914159e-05</v>
+        <v>0.00036103989670846742</v>
       </c>
       <c r="D66" s="0">
-        <v>3.6066419514421123e-05</v>
+        <v>0.00030884256763900127</v>
       </c>
       <c r="E66" s="0">
-        <v>1.9807016308561501e-05</v>
+        <v>0.00020028914689052956</v>
       </c>
       <c r="F66" s="0">
-        <v>1.3250045940031996e-06</v>
+        <v>0.00015278055930347692</v>
       </c>
       <c r="G66" s="0">
-        <v>2.985333199019668e-06</v>
+        <v>5.8948335181234268e-05</v>
       </c>
       <c r="H66" s="0">
-        <v>4.2800000000000002</v>
+        <v>3.2799999999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>5.1008708848721748e-05</v>
+        <v>0.0003933853639629249</v>
       </c>
       <c r="B67" s="0">
-        <v>5.8785700329453148e-05</v>
+        <v>0.00039531090942342525</v>
       </c>
       <c r="C67" s="0">
-        <v>4.4948926618417268e-05</v>
+        <v>0.00036158669206414791</v>
       </c>
       <c r="D67" s="0">
-        <v>3.6407218827527651e-05</v>
+        <v>0.00030877273876061401</v>
       </c>
       <c r="E67" s="0">
-        <v>1.9648913750075928e-05</v>
+        <v>0.00020018180459479282</v>
       </c>
       <c r="F67" s="0">
-        <v>3.5797008322923927e-06</v>
+        <v>0.0001525956718238703</v>
       </c>
       <c r="G67" s="0">
-        <v>2.9836694605204353e-06</v>
+        <v>5.8922168302936775e-05</v>
       </c>
       <c r="H67" s="0">
-        <v>4.2999999999999998</v>
+        <v>3.2999999999999998</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>5.0053787354392544e-05</v>
+        <v>0.00039532069966692314</v>
       </c>
       <c r="B68" s="0">
-        <v>5.9628203025416614e-05</v>
+        <v>0.00038182873507929579</v>
       </c>
       <c r="C68" s="0">
-        <v>4.4516189406694646e-05</v>
+        <v>0.00035404594184121135</v>
       </c>
       <c r="D68" s="0">
-        <v>3.6708523624541094e-05</v>
+        <v>0.0003084697512648533</v>
       </c>
       <c r="E68" s="0">
-        <v>1.944216031675565e-05</v>
+        <v>0.00020026640396407426</v>
       </c>
       <c r="F68" s="0">
-        <v>5.6093914073085706e-06</v>
+        <v>0.00015255855125056387</v>
       </c>
       <c r="G68" s="0">
-        <v>2.9856554360488905e-06</v>
+        <v>5.8859208461706813e-05</v>
       </c>
       <c r="H68" s="0">
-        <v>4.3200000000000003</v>
+        <v>3.3199999999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>5.0778188568827803e-05</v>
+        <v>0.00039004067367351457</v>
       </c>
       <c r="B69" s="0">
-        <v>5.9061303447665306e-05</v>
+        <v>0.00039389949463278419</v>
       </c>
       <c r="C69" s="0">
-        <v>4.4509704291615828e-05</v>
+        <v>0.00036155145639846687</v>
       </c>
       <c r="D69" s="0">
-        <v>3.7970095093104219e-05</v>
+        <v>0.00030890822937686927</v>
       </c>
       <c r="E69" s="0">
-        <v>1.9262034899486217e-05</v>
+        <v>0.00020010500442110797</v>
       </c>
       <c r="F69" s="0">
-        <v>6.9121994865927838e-06</v>
+        <v>0.00015235985938749549</v>
       </c>
       <c r="G69" s="0">
-        <v>2.9989393106649114e-06</v>
+        <v>5.8883388423086357e-05</v>
       </c>
       <c r="H69" s="0">
-        <v>4.3399999999999999</v>
+        <v>3.3399999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>5.0518144473692646e-05</v>
+        <v>0.00038078794601686868</v>
       </c>
       <c r="B70" s="0">
-        <v>5.8416798079359019e-05</v>
+        <v>0.00039062633458141833</v>
       </c>
       <c r="C70" s="0">
-        <v>4.3788293072610473e-05</v>
+        <v>0.00035948371654549</v>
       </c>
       <c r="D70" s="0">
-        <v>3.8536307599869497e-05</v>
+        <v>0.0003088086373912911</v>
       </c>
       <c r="E70" s="0">
-        <v>1.9079262681764962e-05</v>
+        <v>0.00020026032738244655</v>
       </c>
       <c r="F70" s="0">
-        <v>7.777844902570347e-06</v>
+        <v>0.00015237105263873451</v>
       </c>
       <c r="G70" s="0">
-        <v>3.0020271064586286e-06</v>
+        <v>5.8871685747253387e-05</v>
       </c>
       <c r="H70" s="0">
-        <v>4.3600000000000003</v>
+        <v>3.3599999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>4.8757536291835343e-05</v>
+        <v>0.00037980855564759752</v>
       </c>
       <c r="B71" s="0">
-        <v>5.7038554517439689e-05</v>
+        <v>0.00040119758028936262</v>
       </c>
       <c r="C71" s="0">
-        <v>4.2356534375477e-05</v>
+        <v>0.00036166799424969893</v>
       </c>
       <c r="D71" s="0">
-        <v>3.9123140864961973e-05</v>
+        <v>0.00030900727324153316</v>
       </c>
       <c r="E71" s="0">
-        <v>1.8892036169135359e-05</v>
+        <v>0.00019904900411281688</v>
       </c>
       <c r="F71" s="0">
-        <v>8.3739765023178435e-06</v>
+        <v>0.00015234250792719043</v>
       </c>
       <c r="G71" s="0">
-        <v>2.9956081355284081e-06</v>
+        <v>5.8813346109758442e-05</v>
       </c>
       <c r="H71" s="0">
-        <v>4.3799999999999999</v>
+        <v>3.3799999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>4.6292805513415393e-05</v>
+        <v>0.00037321183367006102</v>
       </c>
       <c r="B72" s="0">
-        <v>5.5305863368804407e-05</v>
+        <v>0.00039973314223549789</v>
       </c>
       <c r="C72" s="0">
-        <v>4.1158305589902234e-05</v>
+        <v>0.00036066799309492705</v>
       </c>
       <c r="D72" s="0">
-        <v>3.9536265420599672e-05</v>
+        <v>0.0003089543742626743</v>
       </c>
       <c r="E72" s="0">
-        <v>1.8708102151848742e-05</v>
+        <v>0.00020380911350647042</v>
       </c>
       <c r="F72" s="0">
-        <v>8.7941052916496896e-06</v>
+        <v>0.00015218021021259207</v>
       </c>
       <c r="G72" s="0">
-        <v>2.9978943214989987e-06</v>
+        <v>5.8892052224549105e-05</v>
       </c>
       <c r="H72" s="0">
-        <v>4.4000000000000004</v>
+        <v>3.3999999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>4.5243648634815171e-05</v>
+        <v>0.00037618970085376063</v>
       </c>
       <c r="B73" s="0">
-        <v>5.5095878330692446e-05</v>
+        <v>0.00039684306887328064</v>
       </c>
       <c r="C73" s="0">
-        <v>3.844017481623693e-05</v>
+        <v>0.00036082147822695526</v>
       </c>
       <c r="D73" s="0">
-        <v>4.0241292516667596e-05</v>
+        <v>0.00030866460414323408</v>
       </c>
       <c r="E73" s="0">
-        <v>1.8523292548395297e-05</v>
+        <v>0.00020364734292990496</v>
       </c>
       <c r="F73" s="0">
-        <v>9.0978166471167358e-06</v>
+        <v>0.00015200561279414779</v>
       </c>
       <c r="G73" s="0">
-        <v>2.9982347477063339e-06</v>
+        <v>5.8787283168799476e-05</v>
       </c>
       <c r="H73" s="0">
-        <v>4.4199999999999999</v>
+        <v>3.4199999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>4.4383063178535237e-05</v>
+        <v>0.00036128100137803243</v>
       </c>
       <c r="B74" s="0">
-        <v>5.449144518932518e-05</v>
+        <v>0.00043344799814624784</v>
       </c>
       <c r="C74" s="0">
-        <v>3.4123379117040175e-05</v>
+        <v>0.00036157406570122346</v>
       </c>
       <c r="D74" s="0">
-        <v>4.0797568936802783e-05</v>
+        <v>0.00030840483165592758</v>
       </c>
       <c r="E74" s="0">
-        <v>1.8334165616846698e-05</v>
+        <v>0.00020349408450643047</v>
       </c>
       <c r="F74" s="0">
-        <v>9.3286799806408312e-06</v>
+        <v>0.00015186840729092727</v>
       </c>
       <c r="G74" s="0">
-        <v>3.0005497238948865e-06</v>
+        <v>5.8727978574707752e-05</v>
       </c>
       <c r="H74" s="0">
-        <v>4.4400000000000004</v>
+        <v>3.4399999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>4.3457882820101901e-05</v>
+        <v>0.00036426764373080384</v>
       </c>
       <c r="B75" s="0">
-        <v>5.3867276620639715e-05</v>
+        <v>0.00038935604178267068</v>
       </c>
       <c r="C75" s="0">
-        <v>2.4670522572941214e-05</v>
+        <v>0.0003599847610197388</v>
       </c>
       <c r="D75" s="0">
-        <v>4.1365251566027823e-05</v>
+        <v>0.00030863336823999448</v>
       </c>
       <c r="E75" s="0">
-        <v>1.81510646961642e-05</v>
+        <v>0.00020349684812093232</v>
       </c>
       <c r="F75" s="0">
-        <v>9.5048467085316018e-06</v>
+        <v>0.00015179481578336102</v>
       </c>
       <c r="G75" s="0">
-        <v>3.002685082531976e-06</v>
+        <v>5.8722621933217977e-05</v>
       </c>
       <c r="H75" s="0">
-        <v>4.46</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>4.2993642643952349e-05</v>
+        <v>0.00035524713893108321</v>
       </c>
       <c r="B76" s="0">
-        <v>5.462898343760348e-05</v>
+        <v>0.00039292759689319145</v>
       </c>
       <c r="C76" s="0">
-        <v>1.7431878758677491e-06</v>
+        <v>0.00036273521886980801</v>
       </c>
       <c r="D76" s="0">
-        <v>4.2027596511160992e-05</v>
+        <v>0.00030795743004705518</v>
       </c>
       <c r="E76" s="0">
-        <v>1.7994446095107926e-05</v>
+        <v>0.00020342960190181255</v>
       </c>
       <c r="F76" s="0">
-        <v>9.6467542926789955e-06</v>
+        <v>0.00015176734660267291</v>
       </c>
       <c r="G76" s="0">
-        <v>3.0177653303607521e-06</v>
+        <v>5.868821446543979e-05</v>
       </c>
       <c r="H76" s="0">
-        <v>4.4800000000000004</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>4.2024945096622256e-05</v>
+        <v>0.00036638073782976004</v>
       </c>
       <c r="B77" s="0">
-        <v>5.399911623702298e-05</v>
+        <v>0.00039529430601036329</v>
       </c>
       <c r="C77" s="0">
-        <v>2.5451390901794597e-05</v>
+        <v>0.00035974109542093917</v>
       </c>
       <c r="D77" s="0">
-        <v>4.2577642982257683e-05</v>
+        <v>0.00030863116233326339</v>
       </c>
       <c r="E77" s="0">
-        <v>1.7812616166433317e-05</v>
+        <v>0.00020324851897090052</v>
       </c>
       <c r="F77" s="0">
-        <v>9.7588283448152209e-06</v>
+        <v>0.00015161999565106691</v>
       </c>
       <c r="G77" s="0">
-        <v>3.0195452361304391e-06</v>
+        <v>5.8668705789892474e-05</v>
       </c>
       <c r="H77" s="0">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>4.1161184985329275e-05</v>
+        <v>0.00036685464181137023</v>
       </c>
       <c r="B78" s="0">
-        <v>5.3425338375614825e-05</v>
+        <v>0.00038311748811493479</v>
       </c>
       <c r="C78" s="0">
-        <v>3.4383495022744861e-05</v>
+        <v>0.00036010163687403738</v>
       </c>
       <c r="D78" s="0">
-        <v>4.3095736024733857e-05</v>
+        <v>0.00030863104363844796</v>
       </c>
       <c r="E78" s="0">
-        <v>1.7638619805323594e-05</v>
+        <v>0.00020318101502313151</v>
       </c>
       <c r="F78" s="0">
-        <v>9.8646551510096445e-06</v>
+        <v>0.00015149656960756669</v>
       </c>
       <c r="G78" s="0">
-        <v>3.0215191955937435e-06</v>
+        <v>5.8625648975181898e-05</v>
       </c>
       <c r="H78" s="0">
-        <v>4.5199999999999996</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>3.9226007845967901e-05</v>
+        <v>0.00034475026085652015</v>
       </c>
       <c r="B79" s="0">
-        <v>5.242526846660626e-05</v>
+        <v>0.00039771425630744306</v>
       </c>
       <c r="C79" s="0">
-        <v>3.92030057377891e-05</v>
+        <v>0.00036004575491137741</v>
       </c>
       <c r="D79" s="0">
-        <v>4.3298649878468982e-05</v>
+        <v>0.00030867186566752979</v>
       </c>
       <c r="E79" s="0">
-        <v>1.8165376542166906e-05</v>
+        <v>0.00020316857009546166</v>
       </c>
       <c r="F79" s="0">
-        <v>9.9414205200235002e-06</v>
+        <v>0.00015145130334170395</v>
       </c>
       <c r="G79" s="0">
-        <v>3.0222033135363066e-06</v>
+        <v>5.8593663201108166e-05</v>
       </c>
       <c r="H79" s="0">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>3.9109444640489244e-05</v>
+        <v>0.0003425175982698612</v>
       </c>
       <c r="B80" s="0">
-        <v>5.182123486327636e-05</v>
+        <v>0.0003477221982031786</v>
       </c>
       <c r="C80" s="0">
-        <v>4.0724320618497523e-05</v>
+        <v>0.00034403643717069617</v>
       </c>
       <c r="D80" s="0">
-        <v>4.4131005316400398e-05</v>
+        <v>0.00031169457937544909</v>
       </c>
       <c r="E80" s="0">
-        <v>1.8096749852172028e-05</v>
+        <v>0.00020331533643276221</v>
       </c>
       <c r="F80" s="0">
-        <v>1.0006294637772803e-05</v>
+        <v>0.00015154714654806061</v>
       </c>
       <c r="G80" s="0">
-        <v>3.0236505418819443e-06</v>
+        <v>5.859666237422637e-05</v>
       </c>
       <c r="H80" s="0">
-        <v>4.5599999999999996</v>
+        <v>3.5600000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>3.356860175805801e-05</v>
+        <v>0.00033652788910036558</v>
       </c>
       <c r="B81" s="0">
-        <v>5.0811402515865675e-05</v>
+        <v>0.00039460389289859468</v>
       </c>
       <c r="C81" s="0">
-        <v>4.3140341834121085e-05</v>
+        <v>0.00035971884392338877</v>
       </c>
       <c r="D81" s="0">
-        <v>4.4496132790625401e-05</v>
+        <v>0.00030831483876039015</v>
       </c>
       <c r="E81" s="0">
-        <v>1.7948420993252356e-05</v>
+        <v>0.00020305277834322991</v>
       </c>
       <c r="F81" s="0">
-        <v>1.0061061376634663e-05</v>
+        <v>0.00015137912221277526</v>
       </c>
       <c r="G81" s="0">
-        <v>3.0233904716383884e-06</v>
+        <v>5.8532002927792911e-05</v>
       </c>
       <c r="H81" s="0">
-        <v>4.5800000000000001</v>
+        <v>3.5800000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>3.5883344648499317e-05</v>
+        <v>0.00032139413534705704</v>
       </c>
       <c r="B82" s="0">
-        <v>4.8377128429834605e-05</v>
+        <v>0.00042468466990226001</v>
       </c>
       <c r="C82" s="0">
-        <v>4.254525208375603e-05</v>
+        <v>0.00035959117859044867</v>
       </c>
       <c r="D82" s="0">
-        <v>4.4938453420826475e-05</v>
+        <v>0.00030855880600000568</v>
       </c>
       <c r="E82" s="0">
-        <v>1.7916519799271526e-05</v>
+        <v>0.00020293642644737475</v>
       </c>
       <c r="F82" s="0">
-        <v>1.0120427825318205e-05</v>
+        <v>0.00015129302325078798</v>
       </c>
       <c r="G82" s="0">
-        <v>3.0228329297371622e-06</v>
+        <v>5.8561748906937641e-05</v>
       </c>
       <c r="H82" s="0">
-        <v>4.5999999999999996</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>3.4231722003803029e-05</v>
+        <v>0.0003365076418858928</v>
       </c>
       <c r="B83" s="0">
-        <v>4.7417233185324128e-05</v>
+        <v>0.00041716358427047149</v>
       </c>
       <c r="C83" s="0">
-        <v>4.3889533759285115e-05</v>
+        <v>0.0003604204642236205</v>
       </c>
       <c r="D83" s="0">
-        <v>4.5252778425752913e-05</v>
+        <v>0.00030725714975266276</v>
       </c>
       <c r="E83" s="0">
-        <v>1.7788769206454313e-05</v>
+        <v>0.00020274168983189467</v>
       </c>
       <c r="F83" s="0">
-        <v>1.0163552869916006e-05</v>
+        <v>0.00015116453477191619</v>
       </c>
       <c r="G83" s="0">
-        <v>3.0140594998143068e-06</v>
+        <v>5.844767315918536e-05</v>
       </c>
       <c r="H83" s="0">
-        <v>4.6200000000000001</v>
+        <v>3.6200000000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>3.584035831304816e-05</v>
+        <v>0.00031412221758015047</v>
       </c>
       <c r="B84" s="0">
-        <v>3.9501809639857701e-05</v>
+        <v>0.00039009459105911827</v>
       </c>
       <c r="C84" s="0">
-        <v>4.3441636044720967e-05</v>
+        <v>0.00035782454315100363</v>
       </c>
       <c r="D84" s="0">
-        <v>4.5831914729646048e-05</v>
+        <v>0.00030901727318147627</v>
       </c>
       <c r="E84" s="0">
-        <v>1.770205721162983e-05</v>
+        <v>0.00020257764966924915</v>
       </c>
       <c r="F84" s="0">
-        <v>1.0208556781661376e-05</v>
+        <v>0.00015101850668360639</v>
       </c>
       <c r="G84" s="0">
-        <v>3.0136583384541934e-06</v>
+        <v>5.8324076359841416e-05</v>
       </c>
       <c r="H84" s="0">
-        <v>4.6399999999999997</v>
+        <v>3.6400000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>3.4339398468911165e-05</v>
+        <v>0.00033171421883024309</v>
       </c>
       <c r="B85" s="0">
-        <v>3.1479307519681772e-05</v>
+        <v>0.00039457782788744123</v>
       </c>
       <c r="C85" s="0">
-        <v>4.3857752508266126e-05</v>
+        <v>0.00035827241816359053</v>
       </c>
       <c r="D85" s="0">
-        <v>4.6625577714095937e-05</v>
+        <v>0.00030984303721000582</v>
       </c>
       <c r="E85" s="0">
-        <v>1.7583815868598752e-05</v>
+        <v>0.00020260811397171887</v>
       </c>
       <c r="F85" s="0">
-        <v>1.024763667413099e-05</v>
+        <v>0.00015105558185649122</v>
       </c>
       <c r="G85" s="0">
-        <v>3.0115669348208802e-06</v>
+        <v>5.8317674229310577e-05</v>
       </c>
       <c r="H85" s="0">
-        <v>4.6600000000000001</v>
+        <v>3.6600000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>2.9252005395181284e-05</v>
-      </c>
-      <c r="B86" s="0"/>
+        <v>0.00029000441050795457</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.00039301926056547115</v>
+      </c>
       <c r="C86" s="0">
-        <v>4.4190933092518726e-05</v>
+        <v>0.00035656841076946963</v>
       </c>
       <c r="D86" s="0">
-        <v>4.6907788250858591e-05</v>
+        <v>0.00030987862021276621</v>
       </c>
       <c r="E86" s="0">
-        <v>1.7483603925923266e-05</v>
+        <v>0.00020245185821257769</v>
       </c>
       <c r="F86" s="0">
-        <v>1.0284761730200799e-05</v>
+        <v>0.00015094180009803286</v>
       </c>
       <c r="G86" s="0">
-        <v>3.0098432227510792e-06</v>
+        <v>5.9256807128559365e-05</v>
       </c>
       <c r="H86" s="0">
-        <v>4.6799999999999997</v>
+        <v>3.6800000000000002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>2.8188566077291716e-05</v>
+        <v>0.00032022466524977853</v>
       </c>
       <c r="B87" s="0">
-        <v>3.2894499027774623e-05</v>
+        <v>0.00037521596750812579</v>
       </c>
       <c r="C87" s="0">
-        <v>4.5020839532908821e-05</v>
+        <v>0.0003568823104010241</v>
       </c>
       <c r="D87" s="0">
-        <v>4.7014051865833501e-05</v>
+        <v>0.00030928140022605668</v>
       </c>
       <c r="E87" s="0">
-        <v>1.7407476269983177e-05</v>
+        <v>0.00020178049536506538</v>
       </c>
       <c r="F87" s="0">
-        <v>1.0316845868883189e-05</v>
+        <v>0.00015041044888373321</v>
       </c>
       <c r="G87" s="0">
-        <v>3.0295823876875688e-06</v>
+        <v>6.0191718934207421e-05</v>
       </c>
       <c r="H87" s="0">
-        <v>4.7000000000000002</v>
+        <v>3.7000000000000002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>2.8294143159745459e-05</v>
+        <v>0.00032746483770421906</v>
       </c>
       <c r="B88" s="0">
-        <v>4.0360073392203115e-05</v>
+        <v>0.00039458793726047611</v>
       </c>
       <c r="C88" s="0">
-        <v>4.5092745977739631e-05</v>
+        <v>0.00035698343572756824</v>
       </c>
       <c r="D88" s="0">
-        <v>4.7418829391313338e-05</v>
+        <v>0.00030948715006740837</v>
       </c>
       <c r="E88" s="0">
-        <v>1.7289682166451765e-05</v>
+        <v>0.00020273522600183999</v>
       </c>
       <c r="F88" s="0">
-        <v>1.0352043676931678e-05</v>
+        <v>0.00015064546657314585</v>
       </c>
       <c r="G88" s="0">
-        <v>3.0184626639461165e-06</v>
+        <v>6.0166555255173999e-05</v>
       </c>
       <c r="H88" s="0">
-        <v>4.7199999999999998</v>
+        <v>3.7200000000000002</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>2.730718416861143e-05</v>
+        <v>0.00032022938836031716</v>
       </c>
       <c r="B89" s="0">
-        <v>4.5382506570462593e-05</v>
+        <v>0.00038767199362713735</v>
       </c>
       <c r="C89" s="0">
-        <v>4.5894163137881003e-05</v>
+        <v>0.00035979599139708486</v>
       </c>
       <c r="D89" s="0">
-        <v>4.750153743355784e-05</v>
+        <v>0.00030917449633797783</v>
       </c>
       <c r="E89" s="0">
-        <v>1.7175516596719782e-05</v>
+        <v>0.00020207837390529102</v>
       </c>
       <c r="F89" s="0">
-        <v>1.0392301743451011e-05</v>
+        <v>0.00015075009475252243</v>
       </c>
       <c r="G89" s="0">
-        <v>3.0053631892618059e-06</v>
+        <v>6.0122017335334907e-05</v>
       </c>
       <c r="H89" s="0">
-        <v>4.7400000000000002</v>
+        <v>3.7400000000000002</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>2.8981663312522218e-05</v>
+        <v>0.0003195089500145143</v>
       </c>
       <c r="B90" s="0">
-        <v>4.8861113309173735e-05</v>
+        <v>0.00037405016479632433</v>
       </c>
       <c r="C90" s="0">
-        <v>6.0038963295502065e-05</v>
+        <v>0.00036197298896193942</v>
       </c>
       <c r="D90" s="0">
-        <v>3.6262470939955143e-05</v>
+        <v>0.00030890535004595148</v>
       </c>
       <c r="E90" s="0">
-        <v>2.1043285740633786e-05</v>
+        <v>0.00020135653439132912</v>
       </c>
       <c r="F90" s="0">
-        <v>1.1286962335261094e-05</v>
+        <v>0.00015021999947135504</v>
       </c>
       <c r="G90" s="0">
-        <v>2.8187934983278e-06</v>
+        <v>6.0045059220293408e-05</v>
       </c>
       <c r="H90" s="0">
-        <v>4.7599999999999998</v>
+        <v>3.7599999999999998</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>2.6964346907211034e-05</v>
+        <v>0.00031763358350392622</v>
       </c>
       <c r="B91" s="0">
-        <v>4.6888211873505932e-05</v>
+        <v>0.00039188905088376148</v>
       </c>
       <c r="C91" s="0">
-        <v>4.6374027275042068e-05</v>
+        <v>0.00036174776334343755</v>
       </c>
       <c r="D91" s="0">
-        <v>4.7763095903533294e-05</v>
+        <v>0.00030933434833124192</v>
       </c>
       <c r="E91" s="0">
-        <v>1.7024306726434336e-05</v>
+        <v>0.00020187261070954283</v>
       </c>
       <c r="F91" s="0">
-        <v>1.0453482866714251e-05</v>
+        <v>0.00015065653412553082</v>
       </c>
       <c r="G91" s="0">
-        <v>2.995206032299034e-06</v>
+        <v>6.0087068374141922e-05</v>
       </c>
       <c r="H91" s="0">
-        <v>4.7800000000000002</v>
+        <v>3.7799999999999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>2.6990747290584801e-05</v>
+        <v>0.00031528484212625202</v>
       </c>
       <c r="B92" s="0">
-        <v>4.8443280752486706e-05</v>
+        <v>0.00038505343080504219</v>
       </c>
       <c r="C92" s="0">
-        <v>4.6655711463498697e-05</v>
+        <v>0.00036239855081381421</v>
       </c>
       <c r="D92" s="0">
-        <v>4.7588740471268271e-05</v>
+        <v>0.00030950347894177722</v>
       </c>
       <c r="E92" s="0">
-        <v>1.6891599016467083e-05</v>
+        <v>0.00020176641934934418</v>
       </c>
       <c r="F92" s="0">
-        <v>1.0489441219906706e-05</v>
+        <v>0.00015058561658310701</v>
       </c>
       <c r="G92" s="0">
-        <v>2.9299351204814476e-06</v>
+        <v>6.0045154827822795e-05</v>
       </c>
       <c r="H92" s="0">
-        <v>4.7999999999999998</v>
+        <v>3.7999999999999998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>2.7284025597895455e-05</v>
+        <v>0.00032353092882192577</v>
       </c>
       <c r="B93" s="0">
-        <v>5.2185812464855595e-05</v>
+        <v>0.00039118218581280124</v>
       </c>
       <c r="C93" s="0">
-        <v>6.051661218324978e-05</v>
+        <v>0.00036188108421102199</v>
       </c>
       <c r="D93" s="0">
-        <v>3.5229461519205744e-05</v>
+        <v>0.00030918449924737933</v>
       </c>
       <c r="E93" s="0">
-        <v>2.1480443729638314e-05</v>
+        <v>0.00020162682024002932</v>
       </c>
       <c r="F93" s="0">
-        <v>1.114328087629221e-05</v>
+        <v>0.00015053546909505277</v>
       </c>
       <c r="G93" s="0">
-        <v>2.8327092061373271e-06</v>
+        <v>5.9960466124281278e-05</v>
       </c>
       <c r="H93" s="0">
-        <v>4.8200000000000003</v>
+        <v>3.8199999999999998</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>2.1510450822050558e-05</v>
+        <v>0.00032923813921516585</v>
       </c>
       <c r="B94" s="0">
-        <v>5.2124481139491019e-05</v>
+        <v>0.00039980698637733306</v>
       </c>
       <c r="C94" s="0">
-        <v>5.9012163175398625e-05</v>
+        <v>0.00036127656347805133</v>
       </c>
       <c r="D94" s="0">
-        <v>3.4305469932010417e-05</v>
+        <v>0.0003093094313603414</v>
       </c>
       <c r="E94" s="0">
-        <v>2.1591456708253034e-05</v>
+        <v>0.00020150446400371032</v>
       </c>
       <c r="F94" s="0">
-        <v>1.1121586580895341e-05</v>
+        <v>0.00015047939015216678</v>
       </c>
       <c r="G94" s="0">
-        <v>2.8508459756580907e-06</v>
+        <v>5.9977089656184107e-05</v>
       </c>
       <c r="H94" s="0">
-        <v>4.8399999999999999</v>
+        <v>3.8399999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>2.4528244336696505e-05</v>
+        <v>0.00032905567641200456</v>
       </c>
       <c r="B95" s="0">
-        <v>4.9939734178055974e-05</v>
+        <v>0.00039961329386093195</v>
       </c>
       <c r="C95" s="0">
-        <v>6.1158910665579092e-05</v>
+        <v>0.00036118892833850456</v>
       </c>
       <c r="D95" s="0">
-        <v>3.4976526699268894e-05</v>
+        <v>0.00030929357800255276</v>
       </c>
       <c r="E95" s="0">
-        <v>2.1365057387955722e-05</v>
+        <v>0.00020136083772826597</v>
       </c>
       <c r="F95" s="0">
-        <v>1.1516785313860512e-05</v>
+        <v>0.00015041682294176476</v>
       </c>
       <c r="G95" s="0">
-        <v>2.8638654773739844e-06</v>
+        <v>5.994675114328952e-05</v>
       </c>
       <c r="H95" s="0">
-        <v>4.8600000000000003</v>
+        <v>3.8599999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>2.2443735059587825e-05</v>
+        <v>0.0003288353137775084</v>
       </c>
       <c r="B96" s="0">
-        <v>5.2122735907971619e-05</v>
+        <v>0.00039942801533830627</v>
       </c>
       <c r="C96" s="0">
-        <v>5.0825019920306434e-05</v>
+        <v>0.00036110233832871327</v>
       </c>
       <c r="D96" s="0">
-        <v>4.5562205367584316e-05</v>
+        <v>0.000309280976577957</v>
       </c>
       <c r="E96" s="0">
-        <v>1.6446124711551309e-05</v>
+        <v>0.00020122218336876641</v>
       </c>
       <c r="F96" s="0">
-        <v>1.0624369088567177e-05</v>
+        <v>0.00015037262642262871</v>
       </c>
       <c r="G96" s="0">
-        <v>3.0606216682195994e-06</v>
+        <v>5.9918095091467521e-05</v>
       </c>
       <c r="H96" s="0">
-        <v>4.8799999999999999</v>
+        <v>3.8799999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>2.0410990226452301e-05</v>
+        <v>0.00030154592486338305</v>
       </c>
       <c r="B97" s="0">
-        <v>5.210213913534437e-05</v>
+        <v>0.00039349901546220244</v>
       </c>
       <c r="C97" s="0">
-        <v>5.1828213251892889e-05</v>
+        <v>0.00036277767881344962</v>
       </c>
       <c r="D97" s="0">
-        <v>4.5055400402077083e-05</v>
+        <v>0.00030922702598104682</v>
       </c>
       <c r="E97" s="0">
-        <v>1.6334033642031706e-05</v>
+        <v>0.00020103129597030304</v>
       </c>
       <c r="F97" s="0">
-        <v>1.0657276909428435e-05</v>
+        <v>0.00015029961549365261</v>
       </c>
       <c r="G97" s="0">
-        <v>3.0449582226048424e-06</v>
+        <v>5.9826377804447333e-05</v>
       </c>
       <c r="H97" s="0">
-        <v>4.9000000000000004</v>
+        <v>3.8999999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>1.6304604402875826e-05</v>
+        <v>0.0003177785482818185</v>
       </c>
       <c r="B98" s="0">
-        <v>5.1961320436415689e-05</v>
+        <v>0.00039657104789849352</v>
       </c>
       <c r="C98" s="0">
-        <v>6.0872070119529584e-05</v>
+        <v>0.00036137655186563658</v>
       </c>
       <c r="D98" s="0">
-        <v>3.322745432119959e-05</v>
+        <v>0.0003090515226081284</v>
       </c>
       <c r="E98" s="0">
-        <v>2.2159376659906687e-05</v>
+        <v>0.00020089919743472061</v>
       </c>
       <c r="F98" s="0">
-        <v>1.0926973018088672e-05</v>
+        <v>0.00015026459021651227</v>
       </c>
       <c r="G98" s="0">
-        <v>2.8652554229221772e-06</v>
+        <v>5.9850830095855691e-05</v>
       </c>
       <c r="H98" s="0">
-        <v>4.9199999999999999</v>
+        <v>3.9199999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>9.1660321906417351e-06</v>
+        <v>0.00031622178097537242</v>
       </c>
       <c r="B99" s="0">
-        <v>5.0751773855122427e-05</v>
+        <v>0.00040217209293764338</v>
       </c>
       <c r="C99" s="0">
-        <v>5.3030708612079942e-05</v>
+        <v>0.00036219756836051856</v>
       </c>
       <c r="D99" s="0">
-        <v>4.388265559340496e-05</v>
+        <v>0.00030880504960592006</v>
       </c>
       <c r="E99" s="0">
-        <v>1.5982546863940932e-05</v>
+        <v>0.00020043556811077332</v>
       </c>
       <c r="F99" s="0">
-        <v>1.0733393582352551e-05</v>
+        <v>0.0001497879365572485</v>
       </c>
       <c r="G99" s="0">
-        <v>3.0485342743735328e-06</v>
+        <v>5.9639021505383231e-05</v>
       </c>
       <c r="H99" s="0">
-        <v>4.9400000000000004</v>
+        <v>3.9399999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>1.7500507353882619e-05</v>
+        <v>0.00032353874853926676</v>
       </c>
       <c r="B100" s="0">
-        <v>4.9751388283717413e-05</v>
+        <v>0.00039437269813811653</v>
       </c>
       <c r="C100" s="0">
-        <v>5.3076094154954861e-05</v>
+        <v>0.00036170503344199812</v>
       </c>
       <c r="D100" s="0">
-        <v>4.3212326481447663e-05</v>
+        <v>0.00030905725403704867</v>
       </c>
       <c r="E100" s="0">
-        <v>1.5719544835301457e-05</v>
+        <v>0.00020062861781217938</v>
       </c>
       <c r="F100" s="0">
-        <v>1.0807733915715527e-05</v>
+        <v>0.00015018646387083827</v>
       </c>
       <c r="G100" s="0">
-        <v>3.0300557657532473e-06</v>
+        <v>5.9812176887018517e-05</v>
       </c>
       <c r="H100" s="0">
-        <v>4.96</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>2.0942708161697411e-05</v>
+        <v>0.00031452415562767324</v>
       </c>
       <c r="B101" s="0">
-        <v>5.1794459568422636e-05</v>
+        <v>0.00039737249770173372</v>
       </c>
       <c r="C101" s="0">
-        <v>5.447008268986556e-05</v>
+        <v>0.00036161034692481684</v>
       </c>
       <c r="D101" s="0">
-        <v>4.2839358224313996e-05</v>
+        <v>0.0003091298804168514</v>
       </c>
       <c r="E101" s="0">
-        <v>1.5512197469265891e-05</v>
+        <v>0.00020038435404626015</v>
       </c>
       <c r="F101" s="0">
-        <v>1.0818276315873947e-05</v>
+        <v>0.00015336607293972278</v>
       </c>
       <c r="G101" s="0">
-        <v>3.017000152913759e-06</v>
+        <v>5.974071474130637e-05</v>
       </c>
       <c r="H101" s="0">
-        <v>4.9800000000000004</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1.8675955815836547e-05</v>
+        <v>0.00031810394453751908</v>
       </c>
       <c r="B102" s="0">
-        <v>4.7410463678197368e-05</v>
+        <v>0.00039558484072263429</v>
       </c>
       <c r="C102" s="0">
-        <v>5.4537764567203138e-05</v>
+        <v>0.0003610307512666398</v>
       </c>
       <c r="D102" s="0">
-        <v>4.2088078595228864e-05</v>
+        <v>0.00030890854639030886</v>
       </c>
       <c r="E102" s="0">
-        <v>1.5136847703756764e-05</v>
+        <v>0.00020032196860082267</v>
       </c>
       <c r="F102" s="0">
-        <v>1.0874133565448216e-05</v>
+        <v>0.0001534913295246183</v>
       </c>
       <c r="G102" s="0">
-        <v>3.0123505192549475e-06</v>
+        <v>5.9759746546676469e-05</v>
       </c>
       <c r="H102" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>2.2124267094667777e-05</v>
+        <v>4.423892894201493e-05</v>
       </c>
       <c r="B103" s="0">
-        <v>4.9738815062645513e-05</v>
+        <v>6.797167781487556e-05</v>
       </c>
       <c r="C103" s="0">
-        <v>5.4250668038553644e-05</v>
+        <v>6.0623176163709209e-05</v>
       </c>
       <c r="D103" s="0">
-        <v>4.1740793791227658e-05</v>
+        <v>3.8414633188678737e-05</v>
       </c>
       <c r="E103" s="0">
-        <v>1.4755990182025993e-05</v>
+        <v>5.4615319657404338e-06</v>
       </c>
       <c r="F103" s="0">
-        <v>1.0862574355665691e-05</v>
+        <v>1.1845155172582192e-05</v>
       </c>
       <c r="G103" s="0">
-        <v>3.0046278548975373e-06</v>
+        <v>2.9634811518838751e-06</v>
       </c>
       <c r="H103" s="0">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>4.1538397860794584e-05</v>
+      </c>
+      <c r="B104" s="0">
+        <v>6.8553156094501195e-05</v>
+      </c>
+      <c r="C104" s="0">
+        <v>6.1384050015718869e-05</v>
+      </c>
+      <c r="D104" s="0">
+        <v>3.7889339672581331e-05</v>
+      </c>
+      <c r="E104" s="0">
+        <v>3.4761390907859358e-06</v>
+      </c>
+      <c r="F104" s="0">
+        <v>1.1916989675886675e-05</v>
+      </c>
+      <c r="G104" s="0">
+        <v>2.9519666141827322e-06</v>
+      </c>
+      <c r="H104" s="0">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>4.4118610067013075e-05</v>
+      </c>
+      <c r="B105" s="0">
+        <v>7.0224200936785884e-05</v>
+      </c>
+      <c r="C105" s="0">
+        <v>6.0651220057568866e-05</v>
+      </c>
+      <c r="D105" s="0">
+        <v>3.702648200801287e-05</v>
+      </c>
+      <c r="E105" s="0">
+        <v>8.2797426736322836e-06</v>
+      </c>
+      <c r="F105" s="0">
+        <v>1.2104720173671084e-05</v>
+      </c>
+      <c r="G105" s="0">
+        <v>2.8188126957137002e-06</v>
+      </c>
+      <c r="H105" s="0">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>4.4118610067013075e-05</v>
+      </c>
+      <c r="B106" s="0">
+        <v>7.0224200936785884e-05</v>
+      </c>
+      <c r="C106" s="0">
+        <v>6.0651220057568866e-05</v>
+      </c>
+      <c r="D106" s="0">
+        <v>3.702648200801287e-05</v>
+      </c>
+      <c r="E106" s="0">
+        <v>8.2797426736322836e-06</v>
+      </c>
+      <c r="F106" s="0">
+        <v>1.2104720173671084e-05</v>
+      </c>
+      <c r="G106" s="0">
+        <v>2.8188126957137002e-06</v>
+      </c>
+      <c r="H106" s="0">
+        <v>4.0800000000000001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>4.4200235137057595e-05</v>
+      </c>
+      <c r="B107" s="0">
+        <v>7.2190864050553381e-05</v>
+      </c>
+      <c r="C107" s="0">
+        <v>5.8622495569302793e-05</v>
+      </c>
+      <c r="D107" s="0">
+        <v>3.7231771476813744e-05</v>
+      </c>
+      <c r="E107" s="0">
+        <v>1.2669676577555342e-05</v>
+      </c>
+      <c r="F107" s="0">
+        <v>1.2273971886489443e-05</v>
+      </c>
+      <c r="G107" s="0">
+        <v>2.803634198792013e-06</v>
+      </c>
+      <c r="H107" s="0">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>4.1964882198611262e-05</v>
+      </c>
+      <c r="B108" s="0">
+        <v>7.1771360644460125e-05</v>
+      </c>
+      <c r="C108" s="0">
+        <v>4.887992186748822e-05</v>
+      </c>
+      <c r="D108" s="0">
+        <v>3.4195063265118418e-05</v>
+      </c>
+      <c r="E108" s="0">
+        <v>2.1241801503032721e-05</v>
+      </c>
+      <c r="F108" s="0">
+        <v>9.4903110535979254e-06</v>
+      </c>
+      <c r="G108" s="0">
+        <v>2.9460412391876936e-06</v>
+      </c>
+      <c r="H108" s="0">
+        <v>4.1200000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>4.4217150117121418e-05</v>
+      </c>
+      <c r="B109" s="0">
+        <v>7.0659328638076282e-05</v>
+      </c>
+      <c r="C109" s="0">
+        <v>4.8025049581833344e-05</v>
+      </c>
+      <c r="D109" s="0">
+        <v>3.4525917079646942e-05</v>
+      </c>
+      <c r="E109" s="0">
+        <v>2.1059072225572131e-05</v>
+      </c>
+      <c r="F109" s="0">
+        <v>9.2963798115808141e-06</v>
+      </c>
+      <c r="G109" s="0">
+        <v>2.9564471289857524e-06</v>
+      </c>
+      <c r="H109" s="0">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>5.3679405648874387e-05</v>
+      </c>
+      <c r="B110" s="0">
+        <v>6.8583491251847297e-05</v>
+      </c>
+      <c r="C110" s="0">
+        <v>4.8153345591904863e-05</v>
+      </c>
+      <c r="D110" s="0">
+        <v>3.496282189436685e-05</v>
+      </c>
+      <c r="E110" s="0">
+        <v>2.0886777073724723e-05</v>
+      </c>
+      <c r="F110" s="0">
+        <v>8.9910531510011589e-06</v>
+      </c>
+      <c r="G110" s="0">
+        <v>2.9548925037653509e-06</v>
+      </c>
+      <c r="H110" s="0">
+        <v>4.1600000000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>5.4518127868117199e-05</v>
+      </c>
+      <c r="B111" s="0">
+        <v>6.730648678947846e-05</v>
+      </c>
+      <c r="C111" s="0">
+        <v>4.7454156772701446e-05</v>
+      </c>
+      <c r="D111" s="0">
+        <v>3.4948576510081195e-05</v>
+      </c>
+      <c r="E111" s="0">
+        <v>2.071963400541123e-05</v>
+      </c>
+      <c r="F111" s="0">
+        <v>8.5343840737726687e-06</v>
+      </c>
+      <c r="G111" s="0">
+        <v>2.9714061580459627e-06</v>
+      </c>
+      <c r="H111" s="0">
+        <v>4.1799999999999997</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>5.3912331597479809e-05</v>
+      </c>
+      <c r="B112" s="0">
+        <v>6.6149627832487787e-05</v>
+      </c>
+      <c r="C112" s="0">
+        <v>4.7043427177356073e-05</v>
+      </c>
+      <c r="D112" s="0">
+        <v>3.5172206842729347e-05</v>
+      </c>
+      <c r="E112" s="0">
+        <v>2.0534371636896774e-05</v>
+      </c>
+      <c r="F112" s="0">
+        <v>7.9744912211084811e-06</v>
+      </c>
+      <c r="G112" s="0">
+        <v>2.9753142382554549e-06</v>
+      </c>
+      <c r="H112" s="0">
+        <v>4.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>5.1803918738805748e-05</v>
+      </c>
+      <c r="B113" s="0">
+        <v>6.439965225474905e-05</v>
+      </c>
+      <c r="C113" s="0">
+        <v>4.6660748605965775e-05</v>
+      </c>
+      <c r="D113" s="0">
+        <v>3.5436036078012272e-05</v>
+      </c>
+      <c r="E113" s="0">
+        <v>2.0366470354629896e-05</v>
+      </c>
+      <c r="F113" s="0">
+        <v>7.1838396824379384e-06</v>
+      </c>
+      <c r="G113" s="0">
+        <v>2.9736869956264304e-06</v>
+      </c>
+      <c r="H113" s="0">
+        <v>4.2199999999999998</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>5.1175612043549235e-05</v>
+      </c>
+      <c r="B114" s="0">
+        <v>6.3182823885156976e-05</v>
+      </c>
+      <c r="C114" s="0">
+        <v>4.6252187194707872e-05</v>
+      </c>
+      <c r="D114" s="0">
+        <v>3.5665741317181542e-05</v>
+      </c>
+      <c r="E114" s="0">
+        <v>2.0181336056397291e-05</v>
+      </c>
+      <c r="F114" s="0">
+        <v>6.0196873884809078e-06</v>
+      </c>
+      <c r="G114" s="0">
+        <v>2.9773072906228392e-06</v>
+      </c>
+      <c r="H114" s="0">
+        <v>4.2400000000000002</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>5.0546150932028662e-05</v>
+      </c>
+      <c r="B115" s="0">
+        <v>6.2240017959353054e-05</v>
+      </c>
+      <c r="C115" s="0">
+        <v>4.5818604618458579e-05</v>
+      </c>
+      <c r="D115" s="0">
+        <v>3.5904922432105404e-05</v>
+      </c>
+      <c r="E115" s="0">
+        <v>2.0000038953885224e-05</v>
+      </c>
+      <c r="F115" s="0">
+        <v>4.2308162434422274e-06</v>
+      </c>
+      <c r="G115" s="0">
+        <v>2.9810406187424935e-06</v>
+      </c>
+      <c r="H115" s="0">
+        <v>4.2599999999999998</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>4.3662147103162614e-05</v>
+      </c>
+      <c r="B116" s="0">
+        <v>6.1552214280757807e-05</v>
+      </c>
+      <c r="C116" s="0">
+        <v>4.4143508623914159e-05</v>
+      </c>
+      <c r="D116" s="0">
+        <v>3.6066419514421123e-05</v>
+      </c>
+      <c r="E116" s="0">
+        <v>1.9807016308561501e-05</v>
+      </c>
+      <c r="F116" s="0">
+        <v>1.3250045940031996e-06</v>
+      </c>
+      <c r="G116" s="0">
+        <v>2.985333199019668e-06</v>
+      </c>
+      <c r="H116" s="0">
+        <v>4.2800000000000002</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>5.1008708848721748e-05</v>
+      </c>
+      <c r="B117" s="0">
+        <v>5.8785700329453148e-05</v>
+      </c>
+      <c r="C117" s="0">
+        <v>4.4948926618417268e-05</v>
+      </c>
+      <c r="D117" s="0">
+        <v>3.6407218827527651e-05</v>
+      </c>
+      <c r="E117" s="0">
+        <v>1.9648913750075928e-05</v>
+      </c>
+      <c r="F117" s="0">
+        <v>3.5797008322923927e-06</v>
+      </c>
+      <c r="G117" s="0">
+        <v>2.9836694605204353e-06</v>
+      </c>
+      <c r="H117" s="0">
+        <v>4.2999999999999998</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>5.0053787354392544e-05</v>
+      </c>
+      <c r="B118" s="0">
+        <v>5.9628203025416614e-05</v>
+      </c>
+      <c r="C118" s="0">
+        <v>4.4516189406694646e-05</v>
+      </c>
+      <c r="D118" s="0">
+        <v>3.6708523624541094e-05</v>
+      </c>
+      <c r="E118" s="0">
+        <v>1.944216031675565e-05</v>
+      </c>
+      <c r="F118" s="0">
+        <v>5.6093914073085706e-06</v>
+      </c>
+      <c r="G118" s="0">
+        <v>2.9856554360488905e-06</v>
+      </c>
+      <c r="H118" s="0">
+        <v>4.3200000000000003</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>5.0778188568827803e-05</v>
+      </c>
+      <c r="B119" s="0">
+        <v>5.9061303447665306e-05</v>
+      </c>
+      <c r="C119" s="0">
+        <v>4.4509704291615828e-05</v>
+      </c>
+      <c r="D119" s="0">
+        <v>3.7970095093104219e-05</v>
+      </c>
+      <c r="E119" s="0">
+        <v>1.9262034899486217e-05</v>
+      </c>
+      <c r="F119" s="0">
+        <v>6.9121994865927838e-06</v>
+      </c>
+      <c r="G119" s="0">
+        <v>2.9989393106649114e-06</v>
+      </c>
+      <c r="H119" s="0">
+        <v>4.3399999999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>5.0518144473692646e-05</v>
+      </c>
+      <c r="B120" s="0">
+        <v>5.8416798079359019e-05</v>
+      </c>
+      <c r="C120" s="0">
+        <v>4.3788293072610473e-05</v>
+      </c>
+      <c r="D120" s="0">
+        <v>3.8536307599869497e-05</v>
+      </c>
+      <c r="E120" s="0">
+        <v>1.9079262681764962e-05</v>
+      </c>
+      <c r="F120" s="0">
+        <v>7.777844902570347e-06</v>
+      </c>
+      <c r="G120" s="0">
+        <v>3.0020271064586286e-06</v>
+      </c>
+      <c r="H120" s="0">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>4.8757536291835343e-05</v>
+      </c>
+      <c r="B121" s="0">
+        <v>5.7038554517439689e-05</v>
+      </c>
+      <c r="C121" s="0">
+        <v>4.2356534375477e-05</v>
+      </c>
+      <c r="D121" s="0">
+        <v>3.9123140864961973e-05</v>
+      </c>
+      <c r="E121" s="0">
+        <v>1.8892036169135359e-05</v>
+      </c>
+      <c r="F121" s="0">
+        <v>8.3739765023178435e-06</v>
+      </c>
+      <c r="G121" s="0">
+        <v>2.9956081355284081e-06</v>
+      </c>
+      <c r="H121" s="0">
+        <v>4.3799999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>4.6292805513415393e-05</v>
+      </c>
+      <c r="B122" s="0">
+        <v>5.5305863368804407e-05</v>
+      </c>
+      <c r="C122" s="0">
+        <v>4.1158305589902234e-05</v>
+      </c>
+      <c r="D122" s="0">
+        <v>3.9536265420599672e-05</v>
+      </c>
+      <c r="E122" s="0">
+        <v>1.8708102151848742e-05</v>
+      </c>
+      <c r="F122" s="0">
+        <v>8.7941052916496896e-06</v>
+      </c>
+      <c r="G122" s="0">
+        <v>2.9978943214989987e-06</v>
+      </c>
+      <c r="H122" s="0">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>4.5243648634815171e-05</v>
+      </c>
+      <c r="B123" s="0">
+        <v>5.5095878330692446e-05</v>
+      </c>
+      <c r="C123" s="0">
+        <v>3.844017481623693e-05</v>
+      </c>
+      <c r="D123" s="0">
+        <v>4.0241292516667596e-05</v>
+      </c>
+      <c r="E123" s="0">
+        <v>1.8523292548395297e-05</v>
+      </c>
+      <c r="F123" s="0">
+        <v>9.0978166471167358e-06</v>
+      </c>
+      <c r="G123" s="0">
+        <v>2.9982347477063339e-06</v>
+      </c>
+      <c r="H123" s="0">
+        <v>4.4199999999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>4.4383063178535237e-05</v>
+      </c>
+      <c r="B124" s="0">
+        <v>5.449144518932518e-05</v>
+      </c>
+      <c r="C124" s="0">
+        <v>3.4123379117040175e-05</v>
+      </c>
+      <c r="D124" s="0">
+        <v>4.0797568936802783e-05</v>
+      </c>
+      <c r="E124" s="0">
+        <v>1.8334165616846698e-05</v>
+      </c>
+      <c r="F124" s="0">
+        <v>9.3286799806408312e-06</v>
+      </c>
+      <c r="G124" s="0">
+        <v>3.0005497238948865e-06</v>
+      </c>
+      <c r="H124" s="0">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>4.3457882820101901e-05</v>
+      </c>
+      <c r="B125" s="0">
+        <v>5.3867276620639715e-05</v>
+      </c>
+      <c r="C125" s="0">
+        <v>2.4670522572941214e-05</v>
+      </c>
+      <c r="D125" s="0">
+        <v>4.1365251566027823e-05</v>
+      </c>
+      <c r="E125" s="0">
+        <v>1.81510646961642e-05</v>
+      </c>
+      <c r="F125" s="0">
+        <v>9.5048467085316018e-06</v>
+      </c>
+      <c r="G125" s="0">
+        <v>3.002685082531976e-06</v>
+      </c>
+      <c r="H125" s="0">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>4.2993642643952349e-05</v>
+      </c>
+      <c r="B126" s="0">
+        <v>5.462898343760348e-05</v>
+      </c>
+      <c r="C126" s="0">
+        <v>1.7431878758677491e-06</v>
+      </c>
+      <c r="D126" s="0">
+        <v>4.2027596511160992e-05</v>
+      </c>
+      <c r="E126" s="0">
+        <v>1.7994446095107926e-05</v>
+      </c>
+      <c r="F126" s="0">
+        <v>9.6467542926789955e-06</v>
+      </c>
+      <c r="G126" s="0">
+        <v>3.0177653303607521e-06</v>
+      </c>
+      <c r="H126" s="0">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>4.2024945096622256e-05</v>
+      </c>
+      <c r="B127" s="0">
+        <v>5.399911623702298e-05</v>
+      </c>
+      <c r="C127" s="0">
+        <v>2.5451390901794597e-05</v>
+      </c>
+      <c r="D127" s="0">
+        <v>4.2577642982257683e-05</v>
+      </c>
+      <c r="E127" s="0">
+        <v>1.7812616166433317e-05</v>
+      </c>
+      <c r="F127" s="0">
+        <v>9.7588283448152209e-06</v>
+      </c>
+      <c r="G127" s="0">
+        <v>3.0195452361304391e-06</v>
+      </c>
+      <c r="H127" s="0">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>4.1161184985329275e-05</v>
+      </c>
+      <c r="B128" s="0">
+        <v>5.3425338375614825e-05</v>
+      </c>
+      <c r="C128" s="0">
+        <v>3.4383495022744861e-05</v>
+      </c>
+      <c r="D128" s="0">
+        <v>4.3095736024733857e-05</v>
+      </c>
+      <c r="E128" s="0">
+        <v>1.7638619805323594e-05</v>
+      </c>
+      <c r="F128" s="0">
+        <v>9.8646551510096445e-06</v>
+      </c>
+      <c r="G128" s="0">
+        <v>3.0215191955937435e-06</v>
+      </c>
+      <c r="H128" s="0">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>3.9226007845967901e-05</v>
+      </c>
+      <c r="B129" s="0">
+        <v>5.242526846660626e-05</v>
+      </c>
+      <c r="C129" s="0">
+        <v>3.92030057377891e-05</v>
+      </c>
+      <c r="D129" s="0">
+        <v>4.3298649878468982e-05</v>
+      </c>
+      <c r="E129" s="0">
+        <v>1.8165376542166906e-05</v>
+      </c>
+      <c r="F129" s="0">
+        <v>9.9414205200235002e-06</v>
+      </c>
+      <c r="G129" s="0">
+        <v>3.0222033135363066e-06</v>
+      </c>
+      <c r="H129" s="0">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>3.9109444640489244e-05</v>
+      </c>
+      <c r="B130" s="0">
+        <v>5.182123486327636e-05</v>
+      </c>
+      <c r="C130" s="0">
+        <v>4.0724320618497523e-05</v>
+      </c>
+      <c r="D130" s="0">
+        <v>4.4131005316400398e-05</v>
+      </c>
+      <c r="E130" s="0">
+        <v>1.8096749852172028e-05</v>
+      </c>
+      <c r="F130" s="0">
+        <v>1.0006294637772803e-05</v>
+      </c>
+      <c r="G130" s="0">
+        <v>3.0236505418819443e-06</v>
+      </c>
+      <c r="H130" s="0">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>3.356860175805801e-05</v>
+      </c>
+      <c r="B131" s="0">
+        <v>5.0811402515865675e-05</v>
+      </c>
+      <c r="C131" s="0">
+        <v>4.3140341834121085e-05</v>
+      </c>
+      <c r="D131" s="0">
+        <v>4.4496132790625401e-05</v>
+      </c>
+      <c r="E131" s="0">
+        <v>1.7948420993252356e-05</v>
+      </c>
+      <c r="F131" s="0">
+        <v>1.0061061376634663e-05</v>
+      </c>
+      <c r="G131" s="0">
+        <v>3.0233904716383884e-06</v>
+      </c>
+      <c r="H131" s="0">
+        <v>4.5800000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>3.5883344648499317e-05</v>
+      </c>
+      <c r="B132" s="0">
+        <v>4.8377128429834605e-05</v>
+      </c>
+      <c r="C132" s="0">
+        <v>4.254525208375603e-05</v>
+      </c>
+      <c r="D132" s="0">
+        <v>4.4938453420826475e-05</v>
+      </c>
+      <c r="E132" s="0">
+        <v>1.7916519799271526e-05</v>
+      </c>
+      <c r="F132" s="0">
+        <v>1.0120427825318205e-05</v>
+      </c>
+      <c r="G132" s="0">
+        <v>3.0228329297371622e-06</v>
+      </c>
+      <c r="H132" s="0">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>3.4231722003803029e-05</v>
+      </c>
+      <c r="B133" s="0">
+        <v>4.7417233185324128e-05</v>
+      </c>
+      <c r="C133" s="0">
+        <v>4.3889533759285115e-05</v>
+      </c>
+      <c r="D133" s="0">
+        <v>4.5252778425752913e-05</v>
+      </c>
+      <c r="E133" s="0">
+        <v>1.7788769206454313e-05</v>
+      </c>
+      <c r="F133" s="0">
+        <v>1.0163552869916006e-05</v>
+      </c>
+      <c r="G133" s="0">
+        <v>3.0140594998143068e-06</v>
+      </c>
+      <c r="H133" s="0">
+        <v>4.6200000000000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>3.584035831304816e-05</v>
+      </c>
+      <c r="B134" s="0">
+        <v>3.9501809639857701e-05</v>
+      </c>
+      <c r="C134" s="0">
+        <v>4.3441636044720967e-05</v>
+      </c>
+      <c r="D134" s="0">
+        <v>4.5831914729646048e-05</v>
+      </c>
+      <c r="E134" s="0">
+        <v>1.770205721162983e-05</v>
+      </c>
+      <c r="F134" s="0">
+        <v>1.0208556781661376e-05</v>
+      </c>
+      <c r="G134" s="0">
+        <v>3.0136583384541934e-06</v>
+      </c>
+      <c r="H134" s="0">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>3.4339398468911165e-05</v>
+      </c>
+      <c r="B135" s="0">
+        <v>3.1479307519681772e-05</v>
+      </c>
+      <c r="C135" s="0">
+        <v>4.3857752508266126e-05</v>
+      </c>
+      <c r="D135" s="0">
+        <v>4.6625577714095937e-05</v>
+      </c>
+      <c r="E135" s="0">
+        <v>1.7583815868598752e-05</v>
+      </c>
+      <c r="F135" s="0">
+        <v>1.024763667413099e-05</v>
+      </c>
+      <c r="G135" s="0">
+        <v>3.0115669348208802e-06</v>
+      </c>
+      <c r="H135" s="0">
+        <v>4.6600000000000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>2.9252005395181284e-05</v>
+      </c>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0">
+        <v>4.4190933092518726e-05</v>
+      </c>
+      <c r="D136" s="0">
+        <v>4.6907788250858591e-05</v>
+      </c>
+      <c r="E136" s="0">
+        <v>1.7483603925923266e-05</v>
+      </c>
+      <c r="F136" s="0">
+        <v>1.0284761730200799e-05</v>
+      </c>
+      <c r="G136" s="0">
+        <v>3.0098432227510792e-06</v>
+      </c>
+      <c r="H136" s="0">
+        <v>4.6799999999999997</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>2.8188566077291716e-05</v>
+      </c>
+      <c r="B137" s="0">
+        <v>3.2894499027774623e-05</v>
+      </c>
+      <c r="C137" s="0">
+        <v>4.5020839532908821e-05</v>
+      </c>
+      <c r="D137" s="0">
+        <v>4.7014051865833501e-05</v>
+      </c>
+      <c r="E137" s="0">
+        <v>1.7407476269983177e-05</v>
+      </c>
+      <c r="F137" s="0">
+        <v>1.0316845868883189e-05</v>
+      </c>
+      <c r="G137" s="0">
+        <v>3.0295823876875688e-06</v>
+      </c>
+      <c r="H137" s="0">
+        <v>4.7000000000000002</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>2.8294143159745459e-05</v>
+      </c>
+      <c r="B138" s="0">
+        <v>4.0360073392203115e-05</v>
+      </c>
+      <c r="C138" s="0">
+        <v>4.5092745977739631e-05</v>
+      </c>
+      <c r="D138" s="0">
+        <v>4.7418829391313338e-05</v>
+      </c>
+      <c r="E138" s="0">
+        <v>1.7289682166451765e-05</v>
+      </c>
+      <c r="F138" s="0">
+        <v>1.0352043676931678e-05</v>
+      </c>
+      <c r="G138" s="0">
+        <v>3.0184626639461165e-06</v>
+      </c>
+      <c r="H138" s="0">
+        <v>4.7199999999999998</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>2.730718416861143e-05</v>
+      </c>
+      <c r="B139" s="0">
+        <v>4.5382506570462593e-05</v>
+      </c>
+      <c r="C139" s="0">
+        <v>4.5894163137881003e-05</v>
+      </c>
+      <c r="D139" s="0">
+        <v>4.750153743355784e-05</v>
+      </c>
+      <c r="E139" s="0">
+        <v>1.7175516596719782e-05</v>
+      </c>
+      <c r="F139" s="0">
+        <v>1.0392301743451011e-05</v>
+      </c>
+      <c r="G139" s="0">
+        <v>3.0053631892618059e-06</v>
+      </c>
+      <c r="H139" s="0">
+        <v>4.7400000000000002</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>2.8981663312522218e-05</v>
+      </c>
+      <c r="B140" s="0">
+        <v>4.8861113309173735e-05</v>
+      </c>
+      <c r="C140" s="0">
+        <v>6.0038963295502065e-05</v>
+      </c>
+      <c r="D140" s="0">
+        <v>3.6262470939955143e-05</v>
+      </c>
+      <c r="E140" s="0">
+        <v>2.1043285740633786e-05</v>
+      </c>
+      <c r="F140" s="0">
+        <v>1.1286962335261094e-05</v>
+      </c>
+      <c r="G140" s="0">
+        <v>2.8187934983278e-06</v>
+      </c>
+      <c r="H140" s="0">
+        <v>4.7599999999999998</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>2.6964346907211034e-05</v>
+      </c>
+      <c r="B141" s="0">
+        <v>4.6888211873505932e-05</v>
+      </c>
+      <c r="C141" s="0">
+        <v>4.6374027275042068e-05</v>
+      </c>
+      <c r="D141" s="0">
+        <v>4.7763095903533294e-05</v>
+      </c>
+      <c r="E141" s="0">
+        <v>1.7024306726434336e-05</v>
+      </c>
+      <c r="F141" s="0">
+        <v>1.0453482866714251e-05</v>
+      </c>
+      <c r="G141" s="0">
+        <v>2.995206032299034e-06</v>
+      </c>
+      <c r="H141" s="0">
+        <v>4.7800000000000002</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>2.6990747290584801e-05</v>
+      </c>
+      <c r="B142" s="0">
+        <v>4.8443280752486706e-05</v>
+      </c>
+      <c r="C142" s="0">
+        <v>4.6655711463498697e-05</v>
+      </c>
+      <c r="D142" s="0">
+        <v>4.7588740471268271e-05</v>
+      </c>
+      <c r="E142" s="0">
+        <v>1.6891599016467083e-05</v>
+      </c>
+      <c r="F142" s="0">
+        <v>1.0489441219906706e-05</v>
+      </c>
+      <c r="G142" s="0">
+        <v>2.9299351204814476e-06</v>
+      </c>
+      <c r="H142" s="0">
+        <v>4.7999999999999998</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>2.7284025597895455e-05</v>
+      </c>
+      <c r="B143" s="0">
+        <v>5.2185812464855595e-05</v>
+      </c>
+      <c r="C143" s="0">
+        <v>6.051661218324978e-05</v>
+      </c>
+      <c r="D143" s="0">
+        <v>3.5229461519205744e-05</v>
+      </c>
+      <c r="E143" s="0">
+        <v>2.1480443729638314e-05</v>
+      </c>
+      <c r="F143" s="0">
+        <v>1.114328087629221e-05</v>
+      </c>
+      <c r="G143" s="0">
+        <v>2.8327092061373271e-06</v>
+      </c>
+      <c r="H143" s="0">
+        <v>4.8200000000000003</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>2.1510450822050558e-05</v>
+      </c>
+      <c r="B144" s="0">
+        <v>5.2124481139491019e-05</v>
+      </c>
+      <c r="C144" s="0">
+        <v>5.9012163175398625e-05</v>
+      </c>
+      <c r="D144" s="0">
+        <v>3.4305469932010417e-05</v>
+      </c>
+      <c r="E144" s="0">
+        <v>2.1591456708253034e-05</v>
+      </c>
+      <c r="F144" s="0">
+        <v>1.1121586580895341e-05</v>
+      </c>
+      <c r="G144" s="0">
+        <v>2.8508459756580907e-06</v>
+      </c>
+      <c r="H144" s="0">
+        <v>4.8399999999999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>2.4528244336696505e-05</v>
+      </c>
+      <c r="B145" s="0">
+        <v>4.9939734178055974e-05</v>
+      </c>
+      <c r="C145" s="0">
+        <v>6.1158910665579092e-05</v>
+      </c>
+      <c r="D145" s="0">
+        <v>3.4976526699268894e-05</v>
+      </c>
+      <c r="E145" s="0">
+        <v>2.1365057387955722e-05</v>
+      </c>
+      <c r="F145" s="0">
+        <v>1.1516785313860512e-05</v>
+      </c>
+      <c r="G145" s="0">
+        <v>2.8638654773739844e-06</v>
+      </c>
+      <c r="H145" s="0">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>2.2443735059587825e-05</v>
+      </c>
+      <c r="B146" s="0">
+        <v>5.2122735907971619e-05</v>
+      </c>
+      <c r="C146" s="0">
+        <v>5.0825019920306434e-05</v>
+      </c>
+      <c r="D146" s="0">
+        <v>4.5562205367584316e-05</v>
+      </c>
+      <c r="E146" s="0">
+        <v>1.6446124711551309e-05</v>
+      </c>
+      <c r="F146" s="0">
+        <v>1.0624369088567177e-05</v>
+      </c>
+      <c r="G146" s="0">
+        <v>3.0606216682195994e-06</v>
+      </c>
+      <c r="H146" s="0">
+        <v>4.8799999999999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>2.0410990226452301e-05</v>
+      </c>
+      <c r="B147" s="0">
+        <v>5.210213913534437e-05</v>
+      </c>
+      <c r="C147" s="0">
+        <v>5.1828213251892889e-05</v>
+      </c>
+      <c r="D147" s="0">
+        <v>4.5055400402077083e-05</v>
+      </c>
+      <c r="E147" s="0">
+        <v>1.6334033642031706e-05</v>
+      </c>
+      <c r="F147" s="0">
+        <v>1.0657276909428435e-05</v>
+      </c>
+      <c r="G147" s="0">
+        <v>3.0449582226048424e-06</v>
+      </c>
+      <c r="H147" s="0">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>1.6304604402875826e-05</v>
+      </c>
+      <c r="B148" s="0">
+        <v>5.1961320436415689e-05</v>
+      </c>
+      <c r="C148" s="0">
+        <v>6.0872070119529584e-05</v>
+      </c>
+      <c r="D148" s="0">
+        <v>3.322745432119959e-05</v>
+      </c>
+      <c r="E148" s="0">
+        <v>2.2159376659906687e-05</v>
+      </c>
+      <c r="F148" s="0">
+        <v>1.0926973018088672e-05</v>
+      </c>
+      <c r="G148" s="0">
+        <v>2.8652554229221772e-06</v>
+      </c>
+      <c r="H148" s="0">
+        <v>4.9199999999999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>9.1660321906417351e-06</v>
+      </c>
+      <c r="B149" s="0">
+        <v>5.0751773855122427e-05</v>
+      </c>
+      <c r="C149" s="0">
+        <v>5.3030708612079942e-05</v>
+      </c>
+      <c r="D149" s="0">
+        <v>4.388265559340496e-05</v>
+      </c>
+      <c r="E149" s="0">
+        <v>1.5982546863940932e-05</v>
+      </c>
+      <c r="F149" s="0">
+        <v>1.0733393582352551e-05</v>
+      </c>
+      <c r="G149" s="0">
+        <v>3.0485342743735328e-06</v>
+      </c>
+      <c r="H149" s="0">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>1.7500507353882619e-05</v>
+      </c>
+      <c r="B150" s="0">
+        <v>4.9751388283717413e-05</v>
+      </c>
+      <c r="C150" s="0">
+        <v>5.3076094154954861e-05</v>
+      </c>
+      <c r="D150" s="0">
+        <v>4.3212326481447663e-05</v>
+      </c>
+      <c r="E150" s="0">
+        <v>1.5719544835301457e-05</v>
+      </c>
+      <c r="F150" s="0">
+        <v>1.0807733915715527e-05</v>
+      </c>
+      <c r="G150" s="0">
+        <v>3.0300557657532473e-06</v>
+      </c>
+      <c r="H150" s="0">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>2.0942708161697411e-05</v>
+      </c>
+      <c r="B151" s="0">
+        <v>5.1794459568422636e-05</v>
+      </c>
+      <c r="C151" s="0">
+        <v>5.447008268986556e-05</v>
+      </c>
+      <c r="D151" s="0">
+        <v>4.2839358224313996e-05</v>
+      </c>
+      <c r="E151" s="0">
+        <v>1.5512197469265891e-05</v>
+      </c>
+      <c r="F151" s="0">
+        <v>1.0818276315873947e-05</v>
+      </c>
+      <c r="G151" s="0">
+        <v>3.017000152913759e-06</v>
+      </c>
+      <c r="H151" s="0">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>1.8675955815836547e-05</v>
+      </c>
+      <c r="B152" s="0">
+        <v>4.7410463678197368e-05</v>
+      </c>
+      <c r="C152" s="0">
+        <v>5.4537764567203138e-05</v>
+      </c>
+      <c r="D152" s="0">
+        <v>4.2088078595228864e-05</v>
+      </c>
+      <c r="E152" s="0">
+        <v>1.5136847703756764e-05</v>
+      </c>
+      <c r="F152" s="0">
+        <v>1.0874133565448216e-05</v>
+      </c>
+      <c r="G152" s="0">
+        <v>3.0123505192549475e-06</v>
+      </c>
+      <c r="H152" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>3.5914417486546455e-05</v>
+      </c>
+      <c r="B153" s="0">
+        <v>6.5358126983482953e-05</v>
+      </c>
+      <c r="C153" s="0">
+        <v>6.232129370753357e-05</v>
+      </c>
+      <c r="D153" s="0">
+        <v>4.9759420773333544e-05</v>
+      </c>
+      <c r="E153" s="0">
+        <v>2.3752814052915113e-05</v>
+      </c>
+      <c r="F153" s="0">
+        <v>1.4261739893614514e-05</v>
+      </c>
+      <c r="G153" s="0">
+        <v>3.1631031190225906e-06</v>
+      </c>
+      <c r="H153" s="0">
         <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>2.7856720173729478e-05</v>
+      </c>
+      <c r="B154" s="0">
+        <v>4.8138660716052818e-05</v>
+      </c>
+      <c r="C154" s="0">
+        <v>5.5748005705791019e-05</v>
+      </c>
+      <c r="D154" s="0">
+        <v>4.0077658546228782e-05</v>
+      </c>
+      <c r="E154" s="0">
+        <v>1.414065514009454e-05</v>
+      </c>
+      <c r="F154" s="0">
+        <v>1.0965123988021059e-05</v>
+      </c>
+      <c r="G154" s="0">
+        <v>2.8466815776593984e-06</v>
+      </c>
+      <c r="H154" s="0">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>2.2598048353098465e-05</v>
+      </c>
+      <c r="B155" s="0">
+        <v>4.7114745862556284e-05</v>
+      </c>
+      <c r="C155" s="0">
+        <v>5.5481201372434521e-05</v>
+      </c>
+      <c r="D155" s="0">
+        <v>3.9443150939141897e-05</v>
+      </c>
+      <c r="E155" s="0">
+        <v>1.3308225534492331e-05</v>
+      </c>
+      <c r="F155" s="0">
+        <v>1.0994599564077482e-05</v>
+      </c>
+      <c r="G155" s="0">
+        <v>2.8353828937162219e-06</v>
+      </c>
+      <c r="H155" s="0">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>2.0837895623143822e-05</v>
+      </c>
+      <c r="B156" s="0">
+        <v>4.9075440443395805e-05</v>
+      </c>
+      <c r="C156" s="0">
+        <v>5.6494328797763686e-05</v>
+      </c>
+      <c r="D156" s="0">
+        <v>3.8801992484651575e-05</v>
+      </c>
+      <c r="E156" s="0">
+        <v>1.1821622390873202e-05</v>
+      </c>
+      <c r="F156" s="0">
+        <v>1.169809839382546e-05</v>
+      </c>
+      <c r="G156" s="0">
+        <v>2.785632940925276e-06</v>
+      </c>
+      <c r="H156" s="0">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0"/>
+      <c r="B157" s="0">
+        <v>5.0156978037186238e-05</v>
+      </c>
+      <c r="C157" s="0">
+        <v>5.6756235414187307e-05</v>
+      </c>
+      <c r="D157" s="0">
+        <v>3.8988820097746989e-05</v>
+      </c>
+      <c r="E157" s="0">
+        <v>9.7793227379522712e-06</v>
+      </c>
+      <c r="F157" s="0">
+        <v>1.1692105546740157e-05</v>
+      </c>
+      <c r="G157" s="0">
+        <v>2.9640619227751468e-06</v>
+      </c>
+      <c r="H157" s="0">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>2.0105018678007611e-05</v>
+      </c>
+      <c r="B158" s="0">
+        <v>4.6729864727005861e-05</v>
+      </c>
+      <c r="C158" s="0">
+        <v>5.7708194134453227e-05</v>
+      </c>
+      <c r="D158" s="0">
+        <v>3.7480786137460319e-05</v>
+      </c>
+      <c r="E158" s="0">
+        <v>5.2796782544698845e-06</v>
+      </c>
+      <c r="F158" s="0">
+        <v>1.1882526323606916e-05</v>
+      </c>
+      <c r="G158" s="0">
+        <v>2.768525214025583e-06</v>
+      </c>
+      <c r="H158" s="0">
+        <v>5.1200000000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>2.2177699949106221e-05</v>
+      </c>
+      <c r="B159" s="0">
+        <v>5.4563764833589459e-05</v>
+      </c>
+      <c r="C159" s="0">
+        <v>6.0114625376933901e-05</v>
+      </c>
+      <c r="D159" s="0">
+        <v>3.689637684191109e-05</v>
+      </c>
+      <c r="E159" s="0">
+        <v>3.3044388823226635e-06</v>
+      </c>
+      <c r="F159" s="0">
+        <v>1.1950469442076138e-05</v>
+      </c>
+      <c r="G159" s="0">
+        <v>2.8035372191431434e-06</v>
+      </c>
+      <c r="H159" s="0">
+        <v>5.1399999999999997</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>2.4687556137413054e-05</v>
+      </c>
+      <c r="B160" s="0">
+        <v>4.7976934609400542e-05</v>
+      </c>
+      <c r="C160" s="0">
+        <v>5.8486091474989918e-05</v>
+      </c>
+      <c r="D160" s="0">
+        <v>3.6151980490176964e-05</v>
+      </c>
+      <c r="E160" s="0">
+        <v>8.6938189131781725e-06</v>
+      </c>
+      <c r="F160" s="0">
+        <v>1.2039854508747968e-05</v>
+      </c>
+      <c r="G160" s="0">
+        <v>2.784299102651116e-06</v>
+      </c>
+      <c r="H160" s="0">
+        <v>5.1600000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>2.5513440545172555e-05</v>
+      </c>
+      <c r="B161" s="0">
+        <v>4.8598784810449183e-05</v>
+      </c>
+      <c r="C161" s="0">
+        <v>5.8900371005254196e-05</v>
+      </c>
+      <c r="D161" s="0">
+        <v>3.6540027300472632e-05</v>
+      </c>
+      <c r="E161" s="0">
+        <v>1.1268430584939778e-05</v>
+      </c>
+      <c r="F161" s="0">
+        <v>1.2136701049306606e-05</v>
+      </c>
+      <c r="G161" s="0">
+        <v>2.7764604844200892e-06</v>
+      </c>
+      <c r="H161" s="0">
+        <v>5.1799999999999997</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>3.1139860595603686e-05</v>
+      </c>
+      <c r="B162" s="0">
+        <v>5.0624123267810627e-05</v>
+      </c>
+      <c r="C162" s="0">
+        <v>6.250321384935292e-05</v>
+      </c>
+      <c r="D162" s="0">
+        <v>3.805367171389651e-05</v>
+      </c>
+      <c r="E162" s="0">
+        <v>1.2782097656643076e-05</v>
+      </c>
+      <c r="F162" s="0">
+        <v>1.2188166916106763e-05</v>
+      </c>
+      <c r="G162" s="0">
+        <v>2.9377387179697142e-06</v>
+      </c>
+      <c r="H162" s="0">
+        <v>5.2000000000000002</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>3.4601782656225666e-05</v>
+      </c>
+      <c r="B163" s="0">
+        <v>5.5022095653135114e-05</v>
+      </c>
+      <c r="C163" s="0">
+        <v>5.9733705188196573e-05</v>
+      </c>
+      <c r="D163" s="0">
+        <v>3.6167530235037783e-05</v>
+      </c>
+      <c r="E163" s="0">
+        <v>1.3844612215722381e-05</v>
+      </c>
+      <c r="F163" s="0">
+        <v>1.2331279377014449e-05</v>
+      </c>
+      <c r="G163" s="0">
+        <v>2.769712782292438e-06</v>
+      </c>
+      <c r="H163" s="0">
+        <v>5.2199999999999998</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>3.6226222401497231e-05</v>
+      </c>
+      <c r="B164" s="0">
+        <v>5.8601351233997673e-05</v>
+      </c>
+      <c r="C164" s="0">
+        <v>6.0253489701966376e-05</v>
+      </c>
+      <c r="D164" s="0">
+        <v>3.5755039142544226e-05</v>
+      </c>
+      <c r="E164" s="0">
+        <v>1.4475435377123459e-05</v>
+      </c>
+      <c r="F164" s="0">
+        <v>1.243952858564137e-05</v>
+      </c>
+      <c r="G164" s="0">
+        <v>2.7639281012090686e-06</v>
+      </c>
+      <c r="H164" s="0">
+        <v>5.2400000000000002</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>3.3382253436441612e-05</v>
+      </c>
+      <c r="B165" s="0">
+        <v>5.8642708809752834e-05</v>
+      </c>
+      <c r="C165" s="0">
+        <v>6.0457901183407758e-05</v>
+      </c>
+      <c r="D165" s="0">
+        <v>3.5469301741506559e-05</v>
+      </c>
+      <c r="E165" s="0">
+        <v>1.4933205141133187e-05</v>
+      </c>
+      <c r="F165" s="0">
+        <v>1.2575951444920492e-05</v>
+      </c>
+      <c r="G165" s="0">
+        <v>2.7861503412790079e-06</v>
+      </c>
+      <c r="H165" s="0">
+        <v>5.2599999999999998</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>3.2124347421489919e-05</v>
+      </c>
+      <c r="B166" s="0">
+        <v>5.8904196194360458e-05</v>
+      </c>
+      <c r="C166" s="0">
+        <v>5.9688140803785652e-05</v>
+      </c>
+      <c r="D166" s="0">
+        <v>3.5155826728661236e-05</v>
+      </c>
+      <c r="E166" s="0">
+        <v>1.5239145100781914e-05</v>
+      </c>
+      <c r="F166" s="0">
+        <v>1.2669219470521723e-05</v>
+      </c>
+      <c r="G166" s="0">
+        <v>2.7774558648022017e-06</v>
+      </c>
+      <c r="H166" s="0">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>3.4551158837515584e-05</v>
+      </c>
+      <c r="B167" s="0">
+        <v>5.4953847887382897e-05</v>
+      </c>
+      <c r="C167" s="0">
+        <v>5.7961573272303573e-05</v>
+      </c>
+      <c r="D167" s="0">
+        <v>3.5808321891564415e-05</v>
+      </c>
+      <c r="E167" s="0">
+        <v>1.5499126698259111e-05</v>
+      </c>
+      <c r="F167" s="0">
+        <v>1.2640754694953655e-05</v>
+      </c>
+      <c r="G167" s="0">
+        <v>2.8974429827677437e-06</v>
+      </c>
+      <c r="H167" s="0">
+        <v>5.2999999999999998</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>3.7957563267720216e-05</v>
+      </c>
+      <c r="B168" s="0">
+        <v>5.4633247595746338e-05</v>
+      </c>
+      <c r="C168" s="0">
+        <v>5.7263358883287187e-05</v>
+      </c>
+      <c r="D168" s="0">
+        <v>3.5519839048535332e-05</v>
+      </c>
+      <c r="E168" s="0">
+        <v>1.569650946478796e-05</v>
+      </c>
+      <c r="F168" s="0">
+        <v>1.2725091992359403e-05</v>
+      </c>
+      <c r="G168" s="0">
+        <v>2.8899282906485727e-06</v>
+      </c>
+      <c r="H168" s="0">
+        <v>5.3200000000000003</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>3.8307960399145517e-05</v>
+      </c>
+      <c r="B169" s="0">
+        <v>5.2443703316627261e-05</v>
+      </c>
+      <c r="C169" s="0">
+        <v>4.7526363016196122e-05</v>
+      </c>
+      <c r="D169" s="0">
+        <v>3.5069259263863199e-05</v>
+      </c>
+      <c r="E169" s="0">
+        <v>2.0668085186053838e-05</v>
+      </c>
+      <c r="F169" s="0">
+        <v>8.4642243890520346e-06</v>
+      </c>
+      <c r="G169" s="0">
+        <v>2.954950055868198e-06</v>
+      </c>
+      <c r="H169" s="0">
+        <v>5.3399999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>3.8721988684671985e-05</v>
+      </c>
+      <c r="B170" s="0">
+        <v>4.9687363652915202e-05</v>
+      </c>
+      <c r="C170" s="0">
+        <v>4.6905354982790598e-05</v>
+      </c>
+      <c r="D170" s="0">
+        <v>3.51941293524295e-05</v>
+      </c>
+      <c r="E170" s="0">
+        <v>2.0473789381314314e-05</v>
+      </c>
+      <c r="F170" s="0">
+        <v>7.7696320873535864e-06</v>
+      </c>
+      <c r="G170" s="0">
+        <v>2.9674095461563249e-06</v>
+      </c>
+      <c r="H170" s="0">
+        <v>5.3600000000000003</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>4.3527019160752092e-05</v>
+      </c>
+      <c r="B171" s="0">
+        <v>5.014536688415442e-05</v>
+      </c>
+      <c r="C171" s="0">
+        <v>4.6692431851703424e-05</v>
+      </c>
+      <c r="D171" s="0">
+        <v>3.5520199542973262e-05</v>
+      </c>
+      <c r="E171" s="0">
+        <v>2.0283654819458336e-05</v>
+      </c>
+      <c r="F171" s="0">
+        <v>6.8902885503985469e-06</v>
+      </c>
+      <c r="G171" s="0">
+        <v>2.9644292262610033e-06</v>
+      </c>
+      <c r="H171" s="0">
+        <v>5.3799999999999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>4.6031466765716187e-05</v>
+      </c>
+      <c r="B172" s="0">
+        <v>4.8771130517748361e-05</v>
+      </c>
+      <c r="C172" s="0">
+        <v>4.643498574361424e-05</v>
+      </c>
+      <c r="D172" s="0">
+        <v>3.5702103139831838e-05</v>
+      </c>
+      <c r="E172" s="0">
+        <v>2.0103619260221403e-05</v>
+      </c>
+      <c r="F172" s="0">
+        <v>5.5827358234056313e-06</v>
+      </c>
+      <c r="G172" s="0">
+        <v>2.9740782010567555e-06</v>
+      </c>
+      <c r="H172" s="0">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>4.5801555075087684e-05</v>
+      </c>
+      <c r="B173" s="0">
+        <v>4.7913263330483165e-05</v>
+      </c>
+      <c r="C173" s="0">
+        <v>4.6222418672672559e-05</v>
+      </c>
+      <c r="D173" s="0">
+        <v>3.6092952369821304e-05</v>
+      </c>
+      <c r="E173" s="0">
+        <v>1.9902649081093947e-05</v>
+      </c>
+      <c r="F173" s="0">
+        <v>3.1412321572707449e-06</v>
+      </c>
+      <c r="G173" s="0">
+        <v>2.9724938300571762e-06</v>
+      </c>
+      <c r="H173" s="0">
+        <v>5.4199999999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>4.6962406962125757e-05</v>
+      </c>
+      <c r="B174" s="0">
+        <v>4.6749404235983062e-05</v>
+      </c>
+      <c r="C174" s="0">
+        <v>4.5762909100346441e-05</v>
+      </c>
+      <c r="D174" s="0">
+        <v>3.6353424875078075e-05</v>
+      </c>
+      <c r="E174" s="0">
+        <v>1.9713961969479645e-05</v>
+      </c>
+      <c r="F174" s="0">
+        <v>2.3041148608123717e-06</v>
+      </c>
+      <c r="G174" s="0">
+        <v>2.9759338516292894e-06</v>
+      </c>
+      <c r="H174" s="0">
+        <v>5.4400000000000004</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>4.8106551446170333e-05</v>
+      </c>
+      <c r="B175" s="0">
+        <v>4.5581300799699286e-05</v>
+      </c>
+      <c r="C175" s="0">
+        <v>4.5259150953858674e-05</v>
+      </c>
+      <c r="D175" s="0">
+        <v>3.6599326198726742e-05</v>
+      </c>
+      <c r="E175" s="0">
+        <v>1.9529758743666734e-05</v>
+      </c>
+      <c r="F175" s="0">
+        <v>4.8430169384516688e-06</v>
+      </c>
+      <c r="G175" s="0">
+        <v>2.978644428233967e-06</v>
+      </c>
+      <c r="H175" s="0">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>4.8256557731503342e-05</v>
+      </c>
+      <c r="B176" s="0">
+        <v>4.3143306143284006e-05</v>
+      </c>
+      <c r="C176" s="0">
+        <v>4.4358795768396095e-05</v>
+      </c>
+      <c r="D176" s="0">
+        <v>3.7084370120530394e-05</v>
+      </c>
+      <c r="E176" s="0">
+        <v>1.9338755111226284e-05</v>
+      </c>
+      <c r="F176" s="0">
+        <v>6.6051175117824316e-06</v>
+      </c>
+      <c r="G176" s="0">
+        <v>2.9902474942852577e-06</v>
+      </c>
+      <c r="H176" s="0">
+        <v>5.4800000000000004</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>5.0286692449519788e-05</v>
+      </c>
+      <c r="B177" s="0">
+        <v>4.2696621183772496e-05</v>
+      </c>
+      <c r="C177" s="0">
+        <v>4.378060924219744e-05</v>
+      </c>
+      <c r="D177" s="0">
+        <v>3.8550109301467361e-05</v>
+      </c>
+      <c r="E177" s="0">
+        <v>1.9125028405667688e-05</v>
+      </c>
+      <c r="F177" s="0">
+        <v>7.5524602975839652e-06</v>
+      </c>
+      <c r="G177" s="0">
+        <v>2.9952318853566636e-06</v>
+      </c>
+      <c r="H177" s="0">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>5.1891961134469683e-05</v>
+      </c>
+      <c r="B178" s="0">
+        <v>3.9839700212142313e-05</v>
+      </c>
+      <c r="C178" s="0">
+        <v>4.2254116348352508e-05</v>
+      </c>
+      <c r="D178" s="0">
+        <v>3.8679517564748336e-05</v>
+      </c>
+      <c r="E178" s="0">
+        <v>1.8927113232016103e-05</v>
+      </c>
+      <c r="F178" s="0">
+        <v>8.2184514157860769e-06</v>
+      </c>
+      <c r="G178" s="0">
+        <v>2.9880507445916795e-06</v>
+      </c>
+      <c r="H178" s="0">
+        <v>5.5199999999999996</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>5.2939508692993757e-05</v>
+      </c>
+      <c r="B179" s="0">
+        <v>3.9354241529449398e-05</v>
+      </c>
+      <c r="C179" s="0">
+        <v>4.140004897446192e-05</v>
+      </c>
+      <c r="D179" s="0">
+        <v>3.9350635494256713e-05</v>
+      </c>
+      <c r="E179" s="0">
+        <v>1.8724301885842963e-05</v>
+      </c>
+      <c r="F179" s="0">
+        <v>8.7288687439671619e-06</v>
+      </c>
+      <c r="G179" s="0">
+        <v>3.0031020454995853e-06</v>
+      </c>
+      <c r="H179" s="0">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>5.2488811990433424e-05</v>
+      </c>
+      <c r="B180" s="0">
+        <v>3.8398148242346987e-05</v>
+      </c>
+      <c r="C180" s="0">
+        <v>4.0230726918850681e-05</v>
+      </c>
+      <c r="D180" s="0">
+        <v>4.0424407378430947e-05</v>
+      </c>
+      <c r="E180" s="0">
+        <v>1.8554187728248838e-05</v>
+      </c>
+      <c r="F180" s="0">
+        <v>9.0825378173891804e-06</v>
+      </c>
+      <c r="G180" s="0">
+        <v>2.9892222136080215e-06</v>
+      </c>
+      <c r="H180" s="0">
+        <v>5.5599999999999996</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>5.5799754800286705e-05</v>
+      </c>
+      <c r="B181" s="0">
+        <v>3.8465506341543345e-05</v>
+      </c>
+      <c r="C181" s="0">
+        <v>3.5755757670788765e-05</v>
+      </c>
+      <c r="D181" s="0">
+        <v>4.0357246518605585e-05</v>
+      </c>
+      <c r="E181" s="0">
+        <v>1.8319748575172666e-05</v>
+      </c>
+      <c r="F181" s="0">
+        <v>9.3147815597486389e-06</v>
+      </c>
+      <c r="G181" s="0">
+        <v>3.0050873202270302e-06</v>
+      </c>
+      <c r="H181" s="0">
+        <v>5.5800000000000001</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>5.6936502385587705e-05</v>
+      </c>
+      <c r="B182" s="0">
+        <v>3.8394592669886074e-05</v>
+      </c>
+      <c r="C182" s="0">
+        <v>2.5126798903812973e-05</v>
+      </c>
+      <c r="D182" s="0">
+        <v>4.1200269370275338e-05</v>
+      </c>
+      <c r="E182" s="0">
+        <v>1.8142369715742433e-05</v>
+      </c>
+      <c r="F182" s="0">
+        <v>9.5189794211666542e-06</v>
+      </c>
+      <c r="G182" s="0">
+        <v>3.0082696396681308e-06</v>
+      </c>
+      <c r="H182" s="0">
+        <v>5.5999999999999996</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>5.6197048813277257e-05</v>
+      </c>
+      <c r="B183" s="0">
+        <v>3.9673989759038384e-05</v>
+      </c>
+      <c r="C183" s="0">
+        <v>6.0444697181614597e-06</v>
+      </c>
+      <c r="D183" s="0">
+        <v>4.1564829918526585e-05</v>
+      </c>
+      <c r="E183" s="0">
+        <v>1.7932641355199438e-05</v>
+      </c>
+      <c r="F183" s="0">
+        <v>9.6497325828314814e-06</v>
+      </c>
+      <c r="G183" s="0">
+        <v>3.0093295942869948e-06</v>
+      </c>
+      <c r="H183" s="0">
+        <v>5.6200000000000001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>6.1359851247788492e-05</v>
+      </c>
+      <c r="B184" s="0">
+        <v>3.8780172919507338e-05</v>
+      </c>
+      <c r="C184" s="0">
+        <v>2.7320391685837853e-05</v>
+      </c>
+      <c r="D184" s="0">
+        <v>4.2138956617470021e-05</v>
+      </c>
+      <c r="E184" s="0">
+        <v>1.7741180998834042e-05</v>
+      </c>
+      <c r="F184" s="0">
+        <v>9.7577479494173416e-06</v>
+      </c>
+      <c r="G184" s="0">
+        <v>3.0110920950699256e-06</v>
+      </c>
+      <c r="H184" s="0">
+        <v>5.6399999999999997</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>6.1506853129771774e-05</v>
+      </c>
+      <c r="B185" s="0">
+        <v>3.4406052231833749e-05</v>
+      </c>
+      <c r="C185" s="0">
+        <v>3.5591738166091361e-05</v>
+      </c>
+      <c r="D185" s="0">
+        <v>4.2637407318570527e-05</v>
+      </c>
+      <c r="E185" s="0">
+        <v>1.7546980841990437e-05</v>
+      </c>
+      <c r="F185" s="0">
+        <v>9.8679883653904858e-06</v>
+      </c>
+      <c r="G185" s="0">
+        <v>2.9965240096442619e-06</v>
+      </c>
+      <c r="H185" s="0">
+        <v>5.6600000000000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>6.1899197469383454e-05</v>
+      </c>
+      <c r="B186" s="0">
+        <v>3.5649878362947925e-05</v>
+      </c>
+      <c r="C186" s="0">
+        <v>3.885671946691881e-05</v>
+      </c>
+      <c r="D186" s="0">
+        <v>4.316992208324911e-05</v>
+      </c>
+      <c r="E186" s="0">
+        <v>1.8149340709103747e-05</v>
+      </c>
+      <c r="F186" s="0">
+        <v>9.9425692077810314e-06</v>
+      </c>
+      <c r="G186" s="0">
+        <v>3.0127782631875435e-06</v>
+      </c>
+      <c r="H186" s="0">
+        <v>5.6799999999999997</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>6.3974584739317331e-05</v>
+      </c>
+      <c r="B187" s="0">
+        <v>3.5550458739307002e-05</v>
+      </c>
+      <c r="C187" s="0">
+        <v>4.0742899391633452e-05</v>
+      </c>
+      <c r="D187" s="0">
+        <v>4.3906947690720044e-05</v>
+      </c>
+      <c r="E187" s="0">
+        <v>1.800636054450101e-05</v>
+      </c>
+      <c r="F187" s="0">
+        <v>1.0004462410799246e-05</v>
+      </c>
+      <c r="G187" s="0">
+        <v>3.0140875887340586e-06</v>
+      </c>
+      <c r="H187" s="0">
+        <v>5.7000000000000002</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>6.5044952624691935e-05</v>
+      </c>
+      <c r="B188" s="0">
+        <v>3.3992403914134909e-05</v>
+      </c>
+      <c r="C188" s="0">
+        <v>4.3017222845145635e-05</v>
+      </c>
+      <c r="D188" s="0">
+        <v>4.492475597707382e-05</v>
+      </c>
+      <c r="E188" s="0">
+        <v>1.7968884993661245e-05</v>
+      </c>
+      <c r="F188" s="0">
+        <v>1.0086857972929557e-05</v>
+      </c>
+      <c r="G188" s="0">
+        <v>3.0057561671825758e-06</v>
+      </c>
+      <c r="H188" s="0">
+        <v>5.7199999999999998</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>6.55468539881716e-05</v>
+      </c>
+      <c r="B189" s="0">
+        <v>3.2733169709452878e-05</v>
+      </c>
+      <c r="C189" s="0">
+        <v>4.3731523219531203e-05</v>
+      </c>
+      <c r="D189" s="0">
+        <v>4.5441845749183016e-05</v>
+      </c>
+      <c r="E189" s="0">
+        <v>1.7863786464831009e-05</v>
+      </c>
+      <c r="F189" s="0">
+        <v>1.0136096495625793e-05</v>
+      </c>
+      <c r="G189" s="0">
+        <v>3.0053455172787146e-06</v>
+      </c>
+      <c r="H189" s="0">
+        <v>5.7400000000000002</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>6.6425835457493363e-05</v>
+      </c>
+      <c r="B190" s="0">
+        <v>3.124071832623748e-05</v>
+      </c>
+      <c r="C190" s="0">
+        <v>4.4532811465728027e-05</v>
+      </c>
+      <c r="D190" s="0">
+        <v>4.5674466595600715e-05</v>
+      </c>
+      <c r="E190" s="0">
+        <v>1.7739815306058794e-05</v>
+      </c>
+      <c r="F190" s="0">
+        <v>1.01757539443817e-05</v>
+      </c>
+      <c r="G190" s="0">
+        <v>3.0045577751599688e-06</v>
+      </c>
+      <c r="H190" s="0">
+        <v>5.7599999999999998</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>6.6640286234785737e-05</v>
+      </c>
+      <c r="B191" s="0">
+        <v>2.5572764380501361e-05</v>
+      </c>
+      <c r="C191" s="0">
+        <v>4.4668731676238186e-05</v>
+      </c>
+      <c r="D191" s="0">
+        <v>4.6441450290406902e-05</v>
+      </c>
+      <c r="E191" s="0">
+        <v>1.7657449035900403e-05</v>
+      </c>
+      <c r="F191" s="0">
+        <v>1.0228317251182641e-05</v>
+      </c>
+      <c r="G191" s="0">
+        <v>3.0037053727409003e-06</v>
+      </c>
+      <c r="H191" s="0">
+        <v>5.7800000000000002</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>6.7189539820619842e-05</v>
+      </c>
+      <c r="B192" s="0">
+        <v>1.1679303582447956e-05</v>
+      </c>
+      <c r="C192" s="0">
+        <v>4.5026024155354839e-05</v>
+      </c>
+      <c r="D192" s="0">
+        <v>4.6915050556535223e-05</v>
+      </c>
+      <c r="E192" s="0">
+        <v>1.7557241602137312e-05</v>
+      </c>
+      <c r="F192" s="0">
+        <v>1.0266253027210159e-05</v>
+      </c>
+      <c r="G192" s="0">
+        <v>3.0023227901407243e-06</v>
+      </c>
+      <c r="H192" s="0">
+        <v>5.7999999999999998</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>6.770965579128072e-05</v>
+      </c>
+      <c r="B193" s="0">
+        <v>1.8369047998093449e-05</v>
+      </c>
+      <c r="C193" s="0">
+        <v>4.5278452155356019e-05</v>
+      </c>
+      <c r="D193" s="0">
+        <v>4.7284579716601156e-05</v>
+      </c>
+      <c r="E193" s="0">
+        <v>1.7456792499646735e-05</v>
+      </c>
+      <c r="F193" s="0">
+        <v>1.0308642232528716e-05</v>
+      </c>
+      <c r="G193" s="0">
+        <v>3.00006693221211e-06</v>
+      </c>
+      <c r="H193" s="0">
+        <v>5.8200000000000003</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>6.8238917939954049e-05</v>
+      </c>
+      <c r="B194" s="0">
+        <v>2.7796498226369543e-05</v>
+      </c>
+      <c r="C194" s="0">
+        <v>4.5584015859147026e-05</v>
+      </c>
+      <c r="D194" s="0">
+        <v>4.760709696676988e-05</v>
+      </c>
+      <c r="E194" s="0">
+        <v>1.7355251119858322e-05</v>
+      </c>
+      <c r="F194" s="0">
+        <v>1.034835748333445e-05</v>
+      </c>
+      <c r="G194" s="0">
+        <v>2.9990261008947326e-06</v>
+      </c>
+      <c r="H194" s="0">
+        <v>5.8399999999999999</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>6.5105992029348649e-05</v>
+      </c>
+      <c r="B195" s="0">
+        <v>2.7849476885355377e-05</v>
+      </c>
+      <c r="C195" s="0">
+        <v>4.64672426165826e-05</v>
+      </c>
+      <c r="D195" s="0">
+        <v>4.7862824933257131e-05</v>
+      </c>
+      <c r="E195" s="0">
+        <v>1.7230201754821267e-05</v>
+      </c>
+      <c r="F195" s="0">
+        <v>1.0372255600589727e-05</v>
+      </c>
+      <c r="G195" s="0">
+        <v>2.9852135817013766e-06</v>
+      </c>
+      <c r="H195" s="0">
+        <v>5.8600000000000003</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>6.4017322677986646e-05</v>
+      </c>
+      <c r="B196" s="0">
+        <v>3.3038265974089478e-05</v>
+      </c>
+      <c r="C196" s="0">
+        <v>4.3743553546299663e-05</v>
+      </c>
+      <c r="D196" s="0">
+        <v>4.7109683177608275e-05</v>
+      </c>
+      <c r="E196" s="0">
+        <v>1.7071269540072441e-05</v>
+      </c>
+      <c r="F196" s="0">
+        <v>1.0414009815648039e-05</v>
+      </c>
+      <c r="G196" s="0">
+        <v>2.9868035240984706e-06</v>
+      </c>
+      <c r="H196" s="0">
+        <v>5.8799999999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>6.440748073961696e-05</v>
+      </c>
+      <c r="B197" s="0">
+        <v>3.4013692624869067e-05</v>
+      </c>
+      <c r="C197" s="0">
+        <v>4.4056663651522822e-05</v>
+      </c>
+      <c r="D197" s="0">
+        <v>4.7283577356897162e-05</v>
+      </c>
+      <c r="E197" s="0">
+        <v>1.6964963302068439e-05</v>
+      </c>
+      <c r="F197" s="0">
+        <v>1.045504813174594e-05</v>
+      </c>
+      <c r="G197" s="0">
+        <v>2.9824415236899947e-06</v>
+      </c>
+      <c r="H197" s="0">
+        <v>5.9000000000000004</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>7.3619616907026576e-05</v>
+      </c>
+      <c r="B198" s="0">
+        <v>3.6087832801853265e-05</v>
+      </c>
+      <c r="C198" s="0">
+        <v>4.6775031135372369e-05</v>
+      </c>
+      <c r="D198" s="0">
+        <v>4.7501477590934714e-05</v>
+      </c>
+      <c r="E198" s="0">
+        <v>1.6923788097990696e-05</v>
+      </c>
+      <c r="F198" s="0">
+        <v>1.0484096296887588e-05</v>
+      </c>
+      <c r="G198" s="0">
+        <v>2.9107331736912914e-06</v>
+      </c>
+      <c r="H198" s="0">
+        <v>5.9199999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>5.5579285657065064e-05</v>
+      </c>
+      <c r="B199" s="0">
+        <v>3.6659659842281132e-05</v>
+      </c>
+      <c r="C199" s="0">
+        <v>4.7142186367920544e-05</v>
+      </c>
+      <c r="D199" s="0">
+        <v>4.7090261257563785e-05</v>
+      </c>
+      <c r="E199" s="0">
+        <v>1.6812336527484018e-05</v>
+      </c>
+      <c r="F199" s="0">
+        <v>1.0523233679008934e-05</v>
+      </c>
+      <c r="G199" s="0">
+        <v>3.062829571104019e-06</v>
+      </c>
+      <c r="H199" s="0">
+        <v>5.9400000000000004</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>5.0356459438769246e-05</v>
+      </c>
+      <c r="B200" s="0">
+        <v>3.367021295226778e-05</v>
+      </c>
+      <c r="C200" s="0">
+        <v>4.5896506904789095e-05</v>
+      </c>
+      <c r="D200" s="0">
+        <v>4.6054612951051741e-05</v>
+      </c>
+      <c r="E200" s="0">
+        <v>1.6637124800296199e-05</v>
+      </c>
+      <c r="F200" s="0">
+        <v>1.0555447524285394e-05</v>
+      </c>
+      <c r="G200" s="0">
+        <v>3.0422726062788399e-06</v>
+      </c>
+      <c r="H200" s="0">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>5.1322394639115082e-05</v>
+      </c>
+      <c r="B201" s="0">
+        <v>3.6615115721304068e-05</v>
+      </c>
+      <c r="C201" s="0">
+        <v>4.8075924277018111e-05</v>
+      </c>
+      <c r="D201" s="0">
+        <v>4.5914731608804932e-05</v>
+      </c>
+      <c r="E201" s="0">
+        <v>1.6576540763614983e-05</v>
+      </c>
+      <c r="F201" s="0">
+        <v>1.0599828078859428e-05</v>
+      </c>
+      <c r="G201" s="0">
+        <v>3.0515739605895736e-06</v>
+      </c>
+      <c r="H201" s="0">
+        <v>5.9800000000000004</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>5.5011574931336736e-05</v>
+      </c>
+      <c r="B202" s="0">
+        <v>3.5946038177917531e-05</v>
+      </c>
+      <c r="C202" s="0">
+        <v>4.8220839749493279e-05</v>
+      </c>
+      <c r="D202" s="0">
+        <v>4.5349001372229915e-05</v>
+      </c>
+      <c r="E202" s="0">
+        <v>1.6381793721284971e-05</v>
+      </c>
+      <c r="F202" s="0">
+        <v>1.0615710254932397e-05</v>
+      </c>
+      <c r="G202" s="0">
+        <v>3.054105059065612e-06</v>
+      </c>
+      <c r="H202" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/Parsing/InterpolatedResults.xlsx
+++ b/Automation/Parsing/InterpolatedResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
   <si>
     <t>Strain 1 (in/in)</t>
   </si>
@@ -126,25 +126,25 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>8.9242944304159468e-05</v>
+        <v>8.9233778198276792e-05</v>
       </c>
       <c r="B2" s="0">
-        <v>5.7434759237437418e-05</v>
+        <v>5.7422936513186668e-05</v>
       </c>
       <c r="C2" s="0">
-        <v>4.7156680120753099e-05</v>
+        <v>4.7179169975268151e-05</v>
       </c>
       <c r="D2" s="0">
-        <v>4.241057476896423e-05</v>
+        <v>4.2393347700760489e-05</v>
       </c>
       <c r="E2" s="0">
-        <v>1.8410720166328673e-05</v>
+        <v>1.8435834717972008e-05</v>
       </c>
       <c r="F2" s="0">
-        <v>1.1909926190395775e-05</v>
+        <v>1.1927528123501968e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>2.7240892790752301e-06</v>
+        <v>2.7214094798463219e-06</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
@@ -810,7 +810,9 @@
       <c r="C28" s="0">
         <v>4.7109409951152146e-05</v>
       </c>
-      <c r="D28" s="0"/>
+      <c r="D28" s="0">
+        <v>4.9789000000000001e-05</v>
+      </c>
       <c r="E28" s="0">
         <v>1.7188640238708385e-05</v>
       </c>
@@ -2859,7 +2861,9 @@
       <c r="B107" s="0">
         <v>7.1948937913065257e-05</v>
       </c>
-      <c r="C107" s="0"/>
+      <c r="C107" s="0">
+        <v>6.3816e-05</v>
+      </c>
       <c r="D107" s="0">
         <v>3.7326166305992132e-05</v>
       </c>
@@ -4151,7 +4155,9 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0"/>
+      <c r="A157" s="0">
+        <v>3.9736e-05</v>
+      </c>
       <c r="B157" s="0">
         <v>5.0121281207758925e-05</v>
       </c>

--- a/Automation/Parsing/InterpolatedResults.xlsx
+++ b/Automation/Parsing/InterpolatedResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="88" uniqueCount="8">
   <si>
     <t>Strain 1 (in/in)</t>
   </si>

--- a/Automation/Parsing/InterpolatedResults.xlsx
+++ b/Automation/Parsing/InterpolatedResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="88" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="136" uniqueCount="8">
   <si>
     <t>Strain 1 (in/in)</t>
   </si>
@@ -89,11 +89,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="true"/>
-    <col min="2" max="2" width="15.21875" customWidth="true"/>
-    <col min="3" max="3" width="15.21875" customWidth="true"/>
-    <col min="4" max="4" width="15.21875" customWidth="true"/>
-    <col min="5" max="5" width="15.21875" customWidth="true"/>
-    <col min="6" max="6" width="15.21875" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="3" max="3" width="15.5546875" customWidth="true"/>
+    <col min="4" max="4" width="15.5546875" customWidth="true"/>
+    <col min="5" max="5" width="15.5546875" customWidth="true"/>
+    <col min="6" max="6" width="15.5546875" customWidth="true"/>
     <col min="7" max="7" width="15.21875" customWidth="true"/>
     <col min="8" max="8" width="10.88671875" customWidth="true"/>
   </cols>
@@ -126,132 +126,132 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>8.9233778198276792e-05</v>
+        <v>0.00038182392884372258</v>
       </c>
       <c r="B2" s="0">
-        <v>5.7422936513186668e-05</v>
+        <v>0.00035403039842678725</v>
       </c>
       <c r="C2" s="0">
-        <v>4.7179169975268151e-05</v>
+        <v>0.00029786839697544439</v>
       </c>
       <c r="D2" s="0">
-        <v>4.2393347700760489e-05</v>
+        <v>0.00028047487531956641</v>
       </c>
       <c r="E2" s="0">
-        <v>1.8435834717972008e-05</v>
+        <v>0.00015149541401110123</v>
       </c>
       <c r="F2" s="0">
-        <v>1.1927528123501968e-05</v>
+        <v>7.3537178411631562e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>2.7214094798463219e-06</v>
+        <v>4.7948218254677212e-05</v>
       </c>
       <c r="H2" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>9.4161775578972256e-05</v>
+        <v>0.00042263658554286913</v>
       </c>
       <c r="B3" s="0">
-        <v>6.4866357860474339e-05</v>
+        <v>0.00039022460742583592</v>
       </c>
       <c r="C3" s="0">
-        <v>4.5568745247885025e-05</v>
+        <v>0.0002824991476365973</v>
       </c>
       <c r="D3" s="0">
-        <v>3.6706211577229814e-05</v>
+        <v>0.00025123454853737641</v>
       </c>
       <c r="E3" s="0">
-        <v>1.9494312099251218e-05</v>
+        <v>0.00015649654231147101</v>
       </c>
       <c r="F3" s="0">
-        <v>1.2434002509512417e-05</v>
+        <v>8.6109326009228211e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>2.9845036399297476e-06</v>
+        <v>4.4668336411425145e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>2.02</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.00010003253440793698</v>
+        <v>0.00038507274854935063</v>
       </c>
       <c r="B4" s="0">
-        <v>8.3433528507576867e-05</v>
+        <v>0.00036483926768487594</v>
       </c>
       <c r="C4" s="0">
-        <v>6.5768198884758202e-05</v>
+        <v>0.00031992875715390091</v>
       </c>
       <c r="D4" s="0">
-        <v>4.855608160525657e-05</v>
+        <v>0.00026506155257288694</v>
       </c>
       <c r="E4" s="0">
-        <v>2.337922213575963e-05</v>
+        <v>0.0001591575848330936</v>
       </c>
       <c r="F4" s="0">
-        <v>1.4770337290020662e-05</v>
+        <v>9.78150678888276e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>3.2019521984828219e-06</v>
+        <v>4.9136529576521611e-05</v>
       </c>
       <c r="H4" s="0">
-        <v>2.04</v>
+        <v>18.199999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>9.7712479179607142e-05</v>
+        <v>0.0004327808641336705</v>
       </c>
       <c r="B5" s="0">
-        <v>6.2403299283221922e-05</v>
+        <v>0.0003758961980946703</v>
       </c>
       <c r="C5" s="0">
-        <v>4.4962595871037605e-05</v>
+        <v>0.00028380656905634393</v>
       </c>
       <c r="D5" s="0">
-        <v>3.8374679927770257e-05</v>
+        <v>0.00026968978035771517</v>
       </c>
       <c r="E5" s="0">
-        <v>1.9168174461614287e-05</v>
+        <v>0.00015331144650088585</v>
       </c>
       <c r="F5" s="0">
-        <v>1.1254982424401248e-05</v>
+        <v>0.0001087361715420914</v>
       </c>
       <c r="G5" s="0">
-        <v>2.9905176540109287e-06</v>
+        <v>4.3458412126515643e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>2.0600000000000001</v>
+        <v>18.300000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>9.6859867596732943e-05</v>
+        <v>0.00038938738530532144</v>
       </c>
       <c r="B6" s="0">
-        <v>6.3075322769717016e-05</v>
+        <v>0.00037742531329545569</v>
       </c>
       <c r="C6" s="0">
-        <v>4.4732136143123262e-05</v>
+        <v>0.00036146000000000003</v>
       </c>
       <c r="D6" s="0">
-        <v>3.8871977402178555e-05</v>
+        <v>0.00025353881884849821</v>
       </c>
       <c r="E6" s="0">
-        <v>1.9004261447992196e-05</v>
+        <v>0.000169765067159418</v>
       </c>
       <c r="F6" s="0">
-        <v>1.0869073004057195e-05</v>
+        <v>9.6568531907344939e-05</v>
       </c>
       <c r="G6" s="0">
-        <v>2.9959360747522298e-06</v>
+        <v>5.1150164233478986e-05</v>
       </c>
       <c r="H6" s="0">
-        <v>2.0800000000000001</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="7">
